--- a/ambassador/reviewer_sheets_excel/reviewer_7_sheet.xlsx
+++ b/ambassador/reviewer_sheets_excel/reviewer_7_sheet.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1837"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,7 +430,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
     <col width="22" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
@@ -488,28 +488,42 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>296</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Nour</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Majdoub</t>
+          <t>Mauricio</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I love sharing the possibilities and how to materialize AI and ML solutions. I would love to:
+1. Hello World PyTorch
+Participate in designing introductory talks so that:
+∎People who know how to program learn how to develop AI/ML solutions
+∎First-time programmers (something similar to what code.org does with the "Hour of Code", but specialized in AI with PyTorch)
+2. Written Content Development(In English and Spanish)
+∎Introductory content for using PyTorch
+∎PyTorch connecting it with the entire AI ecosystem to showcase its versatility
+3. Organizing Events
+∎Opening spaces to moderate talks by experts who use PyTorch
+∎Seeking speakers to strengthen the PyTorch community in Spanish
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://www.linkedin.com/in/karla-doctor/
+https://karladoctormauricio.github.io/IA_KarlaDoctorMauricio.github.io/experience.html
+https://medium.com/@ka.doctormauricio</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -999,28 +1013,31 @@
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>290</v>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Ghassen</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Guerra</t>
+          <t>Fatnassi</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate advocate for open-source machine learning, Ghassen is deeply committed to advancing the PyTorch community through knowledge-sharing, inclusive collaboration, and technical mentorship. He plans to contribute by organizing local and virtual PyTorch meetups and workshops aimed at students and even developers. These events will focus on practical use cases, recent advancements, and hands-on tutorials to make PyTorch more accessible and useful to all levels of experience. In addition to that, Ghassen is eager to mentor newcomers through community forums and GitHub contributions, helping them overcome challenges and grow their skill sets. He also intends to create educational content such as blog posts and notebooks to make Pytorch concepts easier to understand.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Ghassen is probably the most passionate person I have ever met regarding learning in general and AI in specific. His energy is contagious and he can get you hooked on any subject just by explaining it. He is always sharing interesting informations about topics that he's learning. He founded Machine Learning Sup'com, a club at our university where students can learn rigorous theoretical machine learning concepts, participate in hands-on workshops and organize competitions. Link for the club's page: https://www.facebook.com/machinelearningsupcom
+He also has a notable track record in research-driven projects and open-source contributions. He contributed a PR to Hugging Face's computer vision course, here's a link to the post: https://www.linkedin.com/feed/update/urn:li:activity:7320193163317420033/</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -1510,28 +1527,34 @@
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>288</v>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>Orestis</t>
+          <t>Abdou</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Makris</t>
+          <t>DIOP</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an NLP research engineer and educator, I have acquired solid experience in using PyTorch for cutting-edge research and real-world applications, particularly in the fields of speech processing and under-represented African languages. I regularly design and deliver technical content, including courses delivered entirely in English, to ensure accessibility to a wide audience.
+As a PyTorch ambassador, I will draw on this experience to build and develop a strong PyTorch community in Senegal and throughout West Africa. I plan to organize local meetups, workshops and conferences where participants can gain hands-on experience with PyTorch for various machine learning and deep learning tasks. These events will be aimed at both beginners and advanced practitioners, with an emphasis on practical implementations, reproducible research and inclusive learning environments.
+I also aim to mentor students and early career researchers by providing guidance on open-source contributions, best practices in model development and designing research projects using PyTorch.
+Beyond the events, I will provide educational resources, tutorials and project presentations in English and local languages to lower the barrier of entry for non-native English speakers.
+My main goal is to promote PyTorch as the framework of choice for researchers and developers in Africa by fostering collaboration, building talent and encouraging innovation that reflects the unique challenges and opportunities of our region.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -2021,28 +2044,38 @@
       <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>285</v>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Phuriwat</t>
+          <t>Alexey</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Angkoondittaphong</t>
+          <t>Gruzdev</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Hi PyTorch Team! 
+First of all, thank you for stable growth of such a nice tool as PyTorch and starting this Ambassador program, that's a really good idea to involve more people in PyTorch activities, and spread the knowledge across the globe about PyTorch and its ecosystem.
+I'm a Alexey Gruzdev, taking Tech Lead position in AI/ML domain, based in Russia, working closely with instruments that's provided by PyTorch ecosystem.
+I would be happy to join the program, and be helpful online &amp; offline in Russia.
+How can I contribute, from my point of view:
+- Advocate for PyTorch with tutorials and blogs for broader community sharing anywhere online.
+- Advocate for PyTorch within the company 😃
+- Research with PyTorch
+- Maybe involved in some activities in Russia if you plan anything there.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr"/>
@@ -2532,28 +2565,38 @@
       <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>281</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>ABDULSALAM</t>
+          <t>Phuriwat</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>BANDE</t>
+          <t>Angkoondittaphong</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Currently, I am working as a research assistant at the Faculty of ICT, Mahidol University (MUICT) on the project of federated learning in the medical images field. While working on this research project, I had a chance to use MU AI Center, a SLURM-based computer cluster of Mahidol University, which ignited my passion for performance tuning. I would love to share my experience in using PyTorch in deep learning research. Although many people have been sharing this in many forms, blogs, and video tutorials, they are barely written in Thai. I would like to fill in that gap.
+During my Bachelor's study, I founded MUICT's AI club and arranged several workshops and knowledge-sharing sessions on basic deep learning. Even though, now, I am not the club's president anymore, I occasionally find an interesting speaker to arrange some events at the club. AI Club and I also hosted a hackathon on detecting an alveolar antral artery in CBCT images, we would love to arrange another hackathon, collaborating with PyTorch.
+Several weeks ago, I had a chance to join the Super AI Engineer boot camp, the camp for training AI engineers. To my surprise, most of the people in the camp never have any experience with performance tuning. I decided to give a lightning talk on the basics of training performance tuning because I believe that people better learn about performance tuning early in their study so that they would be not stuck with long training time. I am willing to share this knowledge of PyTorch with the boarder audience.
+In summary, I would love to 
+- Creates more PyTorch content especially in Thai.
+- Host events, ex. Hackathon, on collaborating with PyTorch.
+- Organizes workshops on advanced PyTorch techniques, such as performance tuning, in universities or the Python Community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+-My LinkedIn account: https://www.linkedin.com/in/phuriwat-angkoondittaphong/
+- AI club first hackathon: https://www.linkedin.com/posts/phuriwat-angkoondittaphong_on-october-16-2024-the-ai-club-of-the-faculty-activity-7258184987747713024-i0uI
+- Lightning Talk on "On the speed of training a Deep Learning model": https://docs.google.com/presentation/d/1Rtwgy13bx2I4iOff5jSOyyXWRFKk6aX2MXoLi2Toej4/edit?usp=sharing</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
@@ -3043,28 +3086,54 @@
       <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>274</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Giorgio</t>
+          <t>Kir</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Magno</t>
+          <t>Zharov</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As the co-organiser of London’s only PyTorch-focused user group (1,500+ members, 200+ YouTube subscribers), I already serve a large, engaged audience. Ambassador status would allow me to amplify that impact while aligning my plans with the programme’s three pillars:
+1. Local Community Leadership
+Support from the PyTorch team would formalise our meetup as an official part of the PyTorch ecosystem, helping us attract more speakers and grow the community.
+2. Learning &amp; Development
+I will continue to grow as an ML/MLOps Engineer and help others do the same—through meetups and hands-on workshops.
+3. Knowledge Sharing
+We are scaling everything we learn beyond the room by recording and publishing every talk on our YouTube channel (goal: reach 500-1k subscribers within 12 months).
+I'm planning to start contributing to PyTorch and giving talks to share GenAI and PyTorch experience.
+By systematically expanding events, codifying new knowledge, and shipping open-source examples, our meetup group aims not only to meet but to exceed all Ambassador responsibilities, providing an inclusive, high-impact gateway to PyTorch for developers across the UK and beyond.
+Thank you for organising this programme!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi PyTorch Ambassadors Team,
+My name is Kir Zharov, I'm living in London, UK and over the last a couple of years I co-organised and hosted many PyTorch meetups in London together with Fedor Shabashev. 
+- We are the only PyTorch meetup group in London (to the best of my knowledge).
+- We have 1,500+ members on Meetup.com.
+- Our events regularly attract 150+ attendees, including ML engineers, research engineers, and startup founders.
+- We’ve had speakers from the core PyTorch team, including Vincent Moens, Mario Lezcano Casado, and Nicolas Hug.
+- We consistently receive positive feedback from our attendees (meetup feedback is 4.5 stars on average on meetup.com)
+- You can learn more about us here:
+    https://www.meetup.com/london-pytorch-meetup/
+- We also upload our talks to our YouTube channel:
+    https://www.youtube.com/@londonpytorchmeetup
+We have 200 subscribes in our YouTube channel.
+Example talks:
+- Vincent Moens, Integrating RLHF in TorchRL (https://youtu.be/MyaGLR7PM20)
+- Mario Lezcano Casado, The torch.compile Stack and How to Introspect It (https://youtu.be/Z3dL2D2BEHE)
+- Nicolas Hug, TorchVision Transforms V2 (https://youtu.be/_CdgR35yu9s)</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
@@ -3554,28 +3623,45 @@
       <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>272</v>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Naeem</t>
+          <t>Parichay</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Khoshnevis</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Parichay is a seasoned technology leader with 14 years of extensive experience across Artificial Intelligence (AI), Generative AI (GenAI), and Agentic AI solutions. He is widely recognized for guiding global clients through transformative AI journeys, leveraging his deep expertise in AI/ML, Solution Architecture, Cognitive Computing, Data Analytics, and Cloud Computing. As a trusted advisor and practitioner, he brings both strategic insight and hands-on technical execution to the implementation of emerging technologies, with a focus on sustainable innovation.
+In the context of PyTorch and community-driven AI development, Parichay envisions making significant contributions through the following engagements:
+1. Community Leadership and Advocacy:
+Over the past several years, Parichay has actively served as a community lead, ambassador, and evangelist across multiple open-source and emerging technology initiatives. His consistent involvement reflects a deep commitment to knowledge democratization and grassroots technology empowerment.
+2. Active Role in Events and Workshops:
+Parichay has successfully hosted and conducted community events and technical workshops, focusing on AI, GenAI, and open-source technologies. These events have engaged diverse learners, ranging from early-career professionals to seasoned developers.
+3. Execution on Executorch for Edge AI:
+Currently working with Executorch, Parichay is focused on implementing lightweight and efficient AI models for edge computing environments. His work explores the fusion of PyTorch-based solutions with real-time, resource-constrained deployments—an area he aims to further explore and evangelize within the community.
+Future Plans for Community Engagement:
+1. Quarterly PyTorch Events: Organizing thematic, hands-on meetups to showcase real-world PyTorch applications and innovations.
+2. Hackathons and Buildathons: Hosting challenge-driven hackathons with a focus on PyTorch-based development for areas such as computer vision, NLP, and edge AI.
+3.Mentorship Programs: Establishing structured mentoring cohorts for students and developers, focusing on model optimization, deployment, and best practices in PyTorch.
+4. Knowledge-Sharing Sessions: Conducting live and recorded sessions that demystify complex AI concepts, tools, and techniques, encouraging active learning within the community.
+5. Impact Goal: Through these planned initiatives, Parichay aims to engage and positively impact 500+ participants per event, fostering an inclusive, informed, and future-ready developer ecosystem.
+Parichay’s proven track record, combined with his passion for collaborative growth, positions him as a valuable contributor to the PyTorch community. His approach integrates technical depth with community empathy—ensuring that PyTorch’s reach and relevance continue to thrive across domains and geographies.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+To explore my blogs, conference presentations, and educational contributions, kindly visit the following link:
+https://parichaydas.notion.site/Additional-Details-20af7d4341c480c19b84c75a41860b2e</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -4065,28 +4151,33 @@
       <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
+      <c r="A191" s="2" t="n">
+        <v>262</v>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>Ojodunwene</t>
+          <t>Uzoechi</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+To engage with the PyTorch community, I’d actively participate in forums, GitHub discussions and X, offering insights and addressing queries to foster collaboration. To help the initiative thrive, I’d contribute code, improve documentation, and promote best practices. For events, I’d plan virtual workshops to teach PyTorch tools, for mentoring, I’d guide new contributors one-on-one, and for knowledge-sharing, I’d create tutorials and share them via blogs and community channels.
+I am very active on X and I want to promote this project on X through threads and contents, this is the link to my X account below; 
+https://x.com/kennedy4pf_?s=21
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+This is a link of my work on X
+https://x.com/kennedy4pf_/status/1902449422006362303?s=46</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -4576,28 +4667,47 @@
       <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
+      <c r="A218" s="2" t="n">
+        <v>261</v>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>Aditya</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am honored to be considered for the PyTorch Ambassador 2025 program. As a current master’s student in Computer Science specializing in Artificial Intelligence, with a focus on language models, I have developed a deep and growing expertise in PyTorch, which I use daily for experimentation and research. My engagement with PyTorch has been pivotal in my academic and professional journey, reflected in three scientific articles, including a significant publication at Globecom 2024. There, I fine-tuned PHI2 models for Retrieval-Augmented Generation (RAG) in telecommunications contexts, demonstrating my ability to apply PyTorch to cutting-edge real-world problems.
+Professionally, I am currently working as a Data Scientist at Alicorp, where I build AI agents using open-source libraries and open-weight language models. My work involves applying PyTorch to develop scalable, efficient solutions that integrate seamlessly into business operations—demonstrating PyTorch’s power not only in research but in production environments as well.
+Beyond research and industry, I actively optimize large language models (LLMs) and deploy them on low-resource devices within federated learning environments using PyTorch. This hands-on experience equips me with practical insights that I eagerly share with the community.
+I am passionate about knowledge sharing and community building. As a content creator on TikTok with over 2.5k followers and YouTube with more than 13k subscribers, I produce engaging AI-related videos that make complex concepts accessible to a broad audience. Additionally, I have a LinkedIn following of over 1.6k professionals where I share insights and updates in AI and PyTorch. I am also an instructor on Udemy and teach Generative AI at Datapath, helping foster the next generation of AI practitioners.
+Furthermore, I co-founded Promters.sh, a growing AI community in Latin America, which promotes collaboration and learning. My participation in hackathons such as those organized by Telefónica, ITU, and Factored has consistently earned top placements, reflecting my commitment to innovation and teamwork.
+As a PyTorch Ambassador, I plan to leverage my multidisciplinary skills and community leadership to:
+1. Host workshops and webinars focused on advanced PyTorch techniques for language models and federated learning.
+2. Mentor newcomers and intermediate users to help them harness PyTorch’s full potential.
+3. Create accessible educational content in both English and Spanish to engage the Latin American AI community.
+4. Facilitate collaborations between academia, industry, and enthusiasts to broaden PyTorch adoption and innovation.
+I am excited to contribute my experience, passion, and energy to help the PyTorch initiative thrive and empower a diverse, global community.
+Thank you for your consideration.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Youtube channel: https://www.youtube.com/@lfsolisnavarro
+linkedin page: https://www.linkedin.com/in/luisfernandosolisnavarro/
+tiktok channel:  https://www.tiktok.com/@lfsolisnavarro
+Udemy courses: https://beacons.ai/lfsolisnavarro/udemycourses
+CV LINK: https://docs.google.com/document/d/1Yklb1UIkr84NL1ThhOigJ0Q1BOvmZuokI4IKxgTSidY/edit?usp=sharing
+Medium blog: https://medium.com/@lfsolisnavarro
+Google Scholar: https://scholar.google.com/citations?user=B4msnUgAAAAJ&amp;hl=pt-BR</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -5087,28 +5197,30 @@
       <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
+      <c r="A245" s="2" t="n">
+        <v>256</v>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>Abdulhayyu</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>Abubakar</t>
+          <t>Dowling</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am the original founder of The London PyTorch Meetup with over 1600 members and regular monthly events with approx.100 attendees at each.  We have been running this meetup for over 5 years, hosted by organisations such as Meta and Revolut.  I am also a director of kXSB.org which is a platform for pre-competitive collaboration of open source projects. We have used the platform to run hackathons and other initiations, aimed at encouraging open source adoption.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -5598,28 +5710,51 @@
       <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
+      <c r="A272" s="2" t="n">
+        <v>249</v>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>Soran</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
         <is>
-          <t>Ghaderi</t>
+          <t>vonThenen</t>
         </is>
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively engage the community by organizing both virtual and in-person events, focusing on practical applications and project-driven learning. I've already led numerous open-source projects built with PyTorch, notably models detecting Parkinson's disease through gait analysis and voice recognition (among many many others). Sharing these projects at conferences like Open Data Science Conference, AI_Dev, etc showcases PyTorch's versatility and inspires others to tackle real-world challenges.
+Mentoring plays a key role too... I regularly guide developers in mastering PyTorch by breaking down complex topics into clear, hands-on tutorials and blog posts. My goal is to continue creating content that simplifies machine learning, making PyTorch accessible for everyone, from beginners to advanced practitioners.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+All prior presentations can be found here:
+https://davidvonthenen.com/talks/
+20+ Sessions that were recorded can be found here:
+https://www.youtube.com/watch?v=zYFYqXh1UGg&amp;list=PLbt-vfK614XogHSmJ0CNmUXtaUKYM247t
+Notable sessions:
+Real Time Communications Conference &amp; Expo 2024
+KEYNOTE: Training Machine Learning Classification Models for Creating Real-Time Data Points of Medical Conditions
+Video: https://youtu.be/YgeinCCUBCk
+October 2024
+NVIDIA GTC 2025
+Crack the AI Black Box: Practical Techniques for Explainable AI
+Video: https://youtu.be/umurTAD4x2Y
+March 2025 San Jose, California, United States
+Souther California Linux Expo x22 (2025)
+Demystifying Building NLP ML Models and How to Leverage Them By Example
+Video: https://youtu.be/hAvCtpKnkLI
+March 2025, Pasadena, California, United States
+Developer Week 2025
+KEYNOTE: The Sound of Innovation: Why Voice Cloning Will Redefine Human-Computer Interaction
+Video: https://youtu.be/WkQnqkHrzEQ
+February 2025 Santa Clara, California, United States</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -6109,28 +6244,32 @@
       <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
-      <c r="A299" s="2" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
+      <c r="A299" s="2" t="n">
+        <v>247</v>
       </c>
       <c r="B299" s="2" t="inlineStr">
         <is>
-          <t>keyush</t>
+          <t>Ankita</t>
         </is>
       </c>
       <c r="C299" s="2" t="inlineStr">
         <is>
-          <t>Nisar</t>
+          <t>Guha</t>
         </is>
       </c>
       <c r="D299" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am very passionate about the topics of Data Science, Machine Learning and Artificial Intelligence. I am a Google Women Tech Makers Ambassador since 2023 and I am pretty active within the tech community. I have also been one of the Reviewers of the book "The Hundred Page-Language Models" book by Andriy Burkov. I have been working with PyTorch both for work Projects as well as for side Pet Projects for my own learning and understanding. If selected, this opportunity will help me to deep dive more in PyTorch framework, it's application, usage, etc. and will also help me to learn along with other fellow community members which in turn will help me to organize events, collaborate on fun projects, speak at tech conferences and so on.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+1. Medium: https://ankitaguha256.medium.com/
+2. LinkedIn: https://www.linkedin.com/in/ankita-guha-4dscience/
+3. Program Committee Member for PyTorch Conference 2025.</t>
         </is>
       </c>
       <c r="E299" s="2" t="inlineStr"/>
@@ -6620,28 +6759,33 @@
       <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
+      <c r="A326" s="2" t="n">
+        <v>242</v>
       </c>
       <c r="B326" s="2" t="inlineStr">
         <is>
-          <t>Ediomo</t>
+          <t>Soran</t>
         </is>
       </c>
       <c r="C326" s="2" t="inlineStr">
         <is>
-          <t>Udoekere</t>
+          <t>Ghaderi</t>
         </is>
       </c>
       <c r="D326" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'd be happy to engage with the PyTorch community primarily by being a speaker at different events, sharing insights and experiences to inspire and educate others. I am open to co-hosting PyTorch meetups or workshops or creating tutorials or blog posts.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have authored a Pytorch library called TorchEBM for modeling and training energy-based and diffusion models. Additionally, I have authored blog posts and Colabs notebooks, all available on my website. 
+Currently, I'm developing a CUDA-accelerated library for randomized BLAS, which eventually may qualify to be integrated into Pytorch after reaching an appropriate stage.  
+Personal website and blog: https://soran-ghaderi.github.io/
+TorchEBM: https://github.com/soran-ghaderi/torchebm</t>
         </is>
       </c>
       <c r="E326" s="2" t="inlineStr"/>
@@ -7131,28 +7275,32 @@
       <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
-      <c r="A353" s="2" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+      <c r="A353" s="2" t="n">
+        <v>239</v>
       </c>
       <c r="B353" s="2" t="inlineStr">
         <is>
-          <t>Vishesh</t>
+          <t>keyush</t>
         </is>
       </c>
       <c r="C353" s="2" t="inlineStr">
         <is>
-          <t>yadav</t>
+          <t>Nisar</t>
         </is>
       </c>
       <c r="D353" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m currently a third-year undergraduate student and an active mentor at my university’s AIML club, where I regularly help organize and lead workshops, hackathons, and learning sessions focused on AI/ML. Many of these sessions are designed to introduce students to core machine learning concepts using PyTorch, which I’ve found to be both beginner-friendly and powerful for real-world applications.
+As a PyTorch Ambassador, I would continue expanding these efforts by hosting more hands-on events, both online and on campus, to make deep learning more accessible to students and early-career developers. I also use PyTorch extensively in my current internship, where I work on deep learning models, giving me practical industry experience that I can bring back to the community through tutorials, code walkthroughs, and mentoring.
+I’m particularly passionate about helping others get started with PyTorch—from explaining the basics to walking through advanced projects—and I believe consistent peer-to-peer learning can make a big impact. Through the Ambassador Program, I’d love to connect with more learners, contribute technical content, and help grow a more inclusive and supportive PyTorch community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E353" s="2" t="inlineStr"/>
@@ -7642,28 +7790,38 @@
       <c r="I379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
+      <c r="A380" s="2" t="n">
+        <v>234</v>
       </c>
       <c r="B380" s="2" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ediomo</t>
         </is>
       </c>
       <c r="C380" s="2" t="inlineStr">
         <is>
-          <t>Efai</t>
+          <t>Udoekere</t>
         </is>
       </c>
       <c r="D380" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would leverage my skills and experience to:
+- Promote the project's mission and values
+- Engage with the community and provide support
+- Organize events and activities to drive growth and adoption
+- Collaborate with the team to develop strategic initiatives
+- Provide valuable feedback and insights to enhance the platform
+- create valuable and high quality content to further enhance the awareness of PyTorch
+- Represent PyTorch in online and real life events further promoting the awareness as well. 
+I am excited about the opportunity to join the ambassador program and contribute to the growth and success of the community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://linktr.ee/acquiliq?utm_source=linktree_profile_share&amp;ltsid=2251391b-023b-4318-b0c1-b903ac60b029</t>
         </is>
       </c>
       <c r="E380" s="2" t="inlineStr"/>
@@ -8153,24 +8311,30 @@
       <c r="I406" t="inlineStr"/>
     </row>
     <row r="407">
-      <c r="A407" s="2" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
+      <c r="A407" s="2" t="n">
+        <v>231</v>
       </c>
       <c r="B407" s="2" t="inlineStr">
         <is>
-          <t>PrettyFave</t>
-        </is>
-      </c>
-      <c r="C407" s="2" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C407" s="2" t="inlineStr">
+        <is>
+          <t>Efai</t>
+        </is>
+      </c>
       <c r="D407" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee is a potential content creator and Web developer
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E407" s="2" t="inlineStr"/>
@@ -8660,28 +8824,36 @@
       <c r="I433" t="inlineStr"/>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
+      <c r="A434" s="2" t="n">
+        <v>225</v>
       </c>
       <c r="B434" s="2" t="inlineStr">
         <is>
-          <t>Pacifique</t>
+          <t>Hyogeun</t>
         </is>
       </c>
       <c r="C434" s="2" t="inlineStr">
         <is>
-          <t>Mugisho</t>
+          <t>Oh</t>
         </is>
       </c>
       <c r="D434" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+With extensive experience in MLOps, backend infrastructure, and a strong passion for open-source machine learning tools, I am committed to actively engaging with the PyTorch community to help it thrive. Over the past several years, I have maintained a technical blog focused on PyTorch, Kubernetes, and related AI/ML topics, sharing practical tutorials and real-world use cases that have reached over 1,500 monthly readers.
+I have a particular interest in vLLM, an efficient large language model serving framework, and am currently contributing to its documentation to help lower the barrier for new users and improve community understanding. This work reflects my dedication to making cutting-edge tools more accessible through clear and practical resources.
+Looking ahead, I am eager to write a detailed tutorial series on building custom kernels in PyTorch. This will demystify advanced PyTorch internals and empower users to optimize and extend their models in novel ways. By sharing this knowledge widely, I hope to inspire deeper learning and practical experimentation within the community.
+As a PyTorch Ambassador, I plan to expand my knowledge-sharing efforts by creating more in-depth tutorials, hands-on guides, and video content tailored to both beginners and advanced users. I will leverage my expertise in deploying and optimizing large-scale PyTorch models to mentor community members through virtual workshops and Q&amp;A sessions.
+Additionally, I aim to organize local meetups and study groups focused on PyTorch applications in production environments and MLOps best practices, fostering collaboration and networking within the community. By actively participating in forums, contributing to open-source discussions, and providing feedback on PyTorch developments, I will help amplify the foundation's mission to make AI tools more accessible and impactful worldwide.
+My approach centers on empowering others through clear communication, continuous learning, and practical knowledge-sharing, which aligns with the PyTorch community’s values of openness, inclusivity, and collaboration.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Tech blog: https://zerohertz.github.io/
+Profile page: https://zerohertz.github.io/about/</t>
         </is>
       </c>
       <c r="E434" s="2" t="inlineStr"/>
@@ -9171,24 +9343,42 @@
       <c r="I460" t="inlineStr"/>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
+      <c r="A461" s="2" t="n">
+        <v>224</v>
       </c>
       <c r="B461" s="2" t="inlineStr">
         <is>
-          <t>Sangofweb3</t>
-        </is>
-      </c>
-      <c r="C461" s="2" t="inlineStr"/>
+          <t>Pacifique</t>
+        </is>
+      </c>
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>Mugisho</t>
+        </is>
+      </c>
       <c r="D461" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would focus on empowering the African engineering and student communities with accessible, practical knowledge on AI and deep learning through PyTorch.
+1. Community Workshops and Training
+Drawing from my experience mentoring over 20 students in CAD and Python, and leading engineering projects at Mapon University, I would organize beginner-to-advanced PyTorch workshops. These would focus on real-world applications such as physics-informed neural networks (PINNs), renewable energy systems, and mechanical system optimization.
+2. Localized Educational Content
+I plan to create open-source tutorials and notebooks tailored to engineering students in developing regions. These will be bilingual (English, French), targeting accessibility across Central and East Africa, with a focus on solving domain-specific problems (e.g. renewable energy, solar energy systems, economy, and more) using PyTorch.
+3. Promoting PyTorch for Scientific Research
+With my background in physics-informed modeling and experience presenting research, I aim to demonstrate how PyTorch can be leveraged in scientific computing. This includes promoting PyTorch-based PINNs and hybrid modeling techniques for engineering and physical sciences.
+4. Expanding Awareness and Engagement
+By building partnerships with local universities and leveraging my leadership background (e.g., as President of the Next Gears Engineering Club), I intend to organize PyTorch Study Jams, Hackathons, and ambassador-driven events to foster a growing and inclusive AI community.
+Ultimately, my goal is to champion PyTorch not just as a framework, but as a gateway to innovation, collaboration, and accessibility for aspiring AI practitioners in underrepresented regions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am particularly passionate about using PyTorch to democratize AI for engineering and sustainability-focused solutions in the Global South. Coming from DR Congo and currently based in Rwanda, I have firsthand experience with the gap in AI education and access to modern tools in underserved regions. This drives my mission to make AI more inclusive.
+Through my current postgraduate studies and independent research, I am actively applying PyTorch to cutting-edge topics like thermoacoustics and multifidelity modeling with PINNs. My ongoing projects have already led to peer-reviewed publication and international recognition. I’m eager to integrate these experiences into community resources that demystify PyTorch for students, engineers, and researchers who lack institutional support.
+Additionally, I bring a bilingual advantage (English and French) and a strong foundation in mechanical and AI fields — uniquely positioning me to connect and educate diverse communities across technical and cultural lines.
+Being a PyTorch Ambassador would not only be an honor but also a platform for impact — helping others realize what I did: that with the right tools and mentorship, anyone can build and innovate with AI.</t>
         </is>
       </c>
       <c r="E461" s="2" t="inlineStr"/>
@@ -9678,28 +9868,30 @@
       <c r="I487" t="inlineStr"/>
     </row>
     <row r="488">
-      <c r="A488" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
+      <c r="A488" s="2" t="n">
+        <v>220</v>
       </c>
       <c r="B488" s="2" t="inlineStr">
         <is>
-          <t>Saagara</t>
+          <t>Hrudu</t>
         </is>
       </c>
       <c r="C488" s="2" t="inlineStr">
         <is>
-          <t>Baiju</t>
+          <t>Shibu</t>
         </is>
       </c>
       <c r="D488" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I, Hrudu Shibu, am nominating myself for the PyTorch Ambassador Program. I am over 18 years of age and fully agree to abide by the PyTorch Code of Conduct and the Linux Foundation Antitrust Policy. As a System Administrator at Axcess.io and an AgentForce Innovator, I work extensively with cloud infrastructure, DevOps tools, and AI integrations. I have earned multiple certifications, including 4x Oracle credentials, and I'm actively exploring AI through hands-on experimentation and certifications like Postman API Fundamentals and AWS Educate. Alongside my technical role, I contribute to the community by publishing newsletters like Jira &amp; Beyond, The Cloud Compass, and Queuil, which help disseminate knowledge across tools and trends in cloud, automation, and AI. I actively support AI and PyTorch communities via discussions, mentorship, and tech writing. My educational path through the University of Mysore (BCA) and a diploma in Cloud Computing further complements my experience. If selected as a PyTorch Ambassador, I aim to bridge the gap between system operations and AI by producing beginner-friendly and cloud-integrated PyTorch tutorials, hosting live sessions on deploying PyTorch apps at scale, and mentoring young engineers transitioning from IT infrastructure roles into AI development. My GitHub handle is @hrudushibu, and more about my work and content can be found at https://topmate.io/hrudushibu..
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+In addition to my professional and community work, I actively publish educational content through newsletters such as The Cloud Compass (focused on AWS and cloud best practices) and Queuil (covering emerging tech and AI news). My Topmate profile (https://topmate.io/hrudushibu) showcases my mentorship offerings and past tech sessions. I also maintain a growing GitHub presence where I share automation scripts, cloud templates, and plan to expand into PyTorch-based AI deployment projects bridging infrastructure with AI workflows. I’m passionate about helping early-career professionals transition into AI roles from traditional IT backgrounds, and I plan to open-source beginner-friendly labs and guides that combine PyTorch with cloud-native tools like AWS, GitHub Actions, and Docker.</t>
         </is>
       </c>
       <c r="E488" s="2" t="inlineStr"/>
@@ -10189,28 +10381,33 @@
       <c r="I514" t="inlineStr"/>
     </row>
     <row r="515">
-      <c r="A515" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="A515" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="B515" s="2" t="inlineStr">
         <is>
-          <t>Mukhammad</t>
+          <t>Menan</t>
         </is>
       </c>
       <c r="C515" s="2" t="inlineStr">
         <is>
-          <t>Rafsanjani</t>
+          <t>Velayuthan</t>
         </is>
       </c>
       <c r="D515" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I would organize and host events virtually, for university students, introducing Pytorch Framework. The reason being, Sri Lankan university students start to gain experience of a Deeplearning Framework at the end of their studies, usually 4th year of their Bachelors, I would target audience in first and second years as this will encourage more students to pickup Pytorch early in their journey. I will also create videos similar to the ones i have shared in Additional Information. Mainly targeting Pytorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I have done talks on Graph Neural Networks : https://www.youtube.com/watch?v=V84shZC-5yQ
+Low Rank Adapters : https://www.youtube.com/watch?v=q4nTRmmReP8
+Knowledge Distillation: https://www.youtube.com/watch?v=O69pUahcUpw
+I have published in EACL, WMT, COLING. My research works can be seen in my Google Profile : https://scholar.google.com/citations?user=8dn_dfcAAAAJ&amp;hl=en</t>
         </is>
       </c>
       <c r="E515" s="2" t="inlineStr"/>
@@ -10700,28 +10897,30 @@
       <c r="I541" t="inlineStr"/>
     </row>
     <row r="542">
-      <c r="A542" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
+      <c r="A542" s="2" t="n">
+        <v>212</v>
       </c>
       <c r="B542" s="2" t="inlineStr">
         <is>
-          <t>Akilsurya</t>
+          <t>Omosuyi</t>
         </is>
       </c>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>Sivakumar</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+as a nominee, i would engage with the pytorch community by creating clear, engaging content that makes complex topics approachable, sharing updates, and starting meaningful discussions online. i’d help the initiative thrive by organizing virtual events, knowledge-sharing sessions, or workshops to support both newcomers and experienced users. i’d also actively mentor and guide community members, fostering a positive and inclusive space where learning and collaboration can grow.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+i’m passionate about community building, simplifying complex topics, and helping people feel connected and informed. with experience across web3 and content creation, i bring consistency, creativity, and genuine enthusiasm — always ready to support projects i believe in and help them grow strong, engaged communities.</t>
         </is>
       </c>
       <c r="E542" s="2" t="inlineStr"/>
@@ -11211,28 +11410,33 @@
       <c r="I568" t="inlineStr"/>
     </row>
     <row r="569">
-      <c r="A569" s="2" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
+      <c r="A569" s="2" t="n">
+        <v>207</v>
       </c>
       <c r="B569" s="2" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="C569" s="2" t="inlineStr">
         <is>
-          <t>Consolvo</t>
+          <t>Seng</t>
         </is>
       </c>
       <c r="D569" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+1. Organise PyTorch-centric workshops in partnership with local universities and tech communities to promote hands-on learning and community engagement.
+2. Provide 1:1 mentoring and facilitate group mentoring circles to support learners and professionals at different stages of their PyTorch journey.
+3. Publish in-depth PyTorch tutorials and regularly share the latest updates, best practices, and use cases from the PyTorch ecosystem on LinkedIn.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+1. Resume: https://drive.google.com/file/d/1B5IyT7yihffROXCQUmTPXvg7QHblq647
+2. Medium Publication: https://medium.com/@peisengtan</t>
         </is>
       </c>
       <c r="E569" s="2" t="inlineStr"/>
@@ -11722,28 +11926,34 @@
       <c r="I595" t="inlineStr"/>
     </row>
     <row r="596">
-      <c r="A596" s="2" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
+      <c r="A596" s="2" t="n">
+        <v>200</v>
       </c>
       <c r="B596" s="2" t="inlineStr">
         <is>
-          <t>Kunal</t>
+          <t>Murilo</t>
         </is>
       </c>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Mishra</t>
+          <t>Gustineli</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Murilo would be a great fit for the PyTorch Ambassador role through his blend of technical expertise, community leadership, and a strong commitment to mentorship and applied research. At Intel, he leads AI software initiatives focused on large-scale deep learning, and at Georgia Tech, he co-leads the DS@GT Applied Research Competitions (ARC) group—a student-led initiative that gives undergraduates, master’s, and PhD students hands-on experience in machine learning through participation in competitive research challenges like CLEF, Kaggle, and internal cluster-based benchmarking on PACE.
+Murilo actively promotes the use of PyTorch in applied research settings. He recently presented a PyTorch Foundation webinar on multi-label plant species classification, showcasing a self-supervised DINOv2-based ViT pipeline for biodiversity identification using the PlantCLEF dataset. This work, which earned 2nd place in the 2025 competition and a spotlight at CVPR 2025’s FGVC12 workshop, reflects Murilo’s commitment to pushing the boundaries of applied AI research and making these methods accessible to the broader community. He is currently working on a PyTorch blog as a follow-on to his webinar.
+As an ambassador, Murilo plans to host regular workshops at Georgia Tech focusing on PyTorch fundamentals, mentor over 50+ active students in DS@GT-ARC on PyTorch best practices, contribute open-source code and reproducible research based on applied research projects, and organize community events.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Murilo is a Senior AI Software Engineer at Intel and is currently pursuing a master's in CS at Georgia Tech. He is passionate about deep learning, information retrieval, and biodiversity research. He also maintains a blog and open-source projects at:
+murilogustineli.com
+github.com/murilogustineli</t>
         </is>
       </c>
       <c r="E596" s="2" t="inlineStr"/>
@@ -12233,10 +12443,8 @@
       <c r="I622" t="inlineStr"/>
     </row>
     <row r="623">
-      <c r="A623" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
+      <c r="A623" s="2" t="n">
+        <v>196</v>
       </c>
       <c r="B623" s="2" t="inlineStr">
         <is>
@@ -12250,11 +12458,42 @@
       </c>
       <c r="D623" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Pytorch ambassador
+As a dedicated AI professional with a passion for developer advocacy and community engagement, I am deeply committed to contributing to the growth and vibrancy of the PyTorch community. My engagement would focus on three core pillars: education, mentorship, and community-building.
+1. Knowledge Sharing &amp; Education: +Having developed and authored technical content such as the TinyML on Arm course and PyTorch with ExecuTorch for Edge AI, I plan to contribute tutorials, blog posts, and learning paths tailored for beginners and intermediate users, particularly those in underrepresented regions. These resources will cover practical applications of PyTorch for embedded AI, cloud deployment, and model optimization.
+2. Hosting Events &amp; Technical Workshops: +I will organize hands-on virtual and in-person workshops, webinars, and hackathons to introduce developers to practical use cases of PyTorch. Collaborating with local developer communities across Africa and Europe (e.g., through Arm, Hochschule Luzern, YCEM and MakersPlace), I aim to create inclusive events that lower the barrier to entry for aspiring ML engineers.
+3. Mentorship &amp; Inclusion: +As a mentor to over 30 interns at 4th-IR and co-founder of YCEM, I have a track record of nurturing talent. I intend to establish a mentorship circle within the PyTorch ecosystem that offers guidance on building careers in AI, contributes to open source, and fosters a culture of peer-to-peer support, particularly for young women in tech.
+With my experience in leading enterprise AI projects and engaging diverse developer groups, I am confident in my ability to help the PyTorch initiative thrive globally through accessible, actionable, and community-focused contributions.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Feature/Workshop/Talks Highlights: 
+• Celebrated for being the First external female engineer to write a learning path. Read more: https://community.arm.com/arm-ambassadors/b/blog/posts/breaking-barriers-dominicas-inspiring-journey
+• Spotlighted in Arm's celebration of International Women in Engineering Day 2024. Read more: https://newsroom.arm.com/blog/international-women-in-engineering-day-2024-arm
+• Delivered a workshop, and Showcased in "Building the Future of AI on Arm at AI Expo Africa 2024.". Read more: https://newsroom.arm.com/blog/ai-expo-africa-2024
+• Arm(E³)NGAGE Arduino Cloud IoT Workshop ACity TEC, February 2024. Read more: https://tec.acity.edu.gh/2024/11/arm-e3ngage-arduino-cloud-iot-workshop-acity-tec-february-2024/
+• Celebrating International Women in  Engineering Day 2024 with Arm. Read more: https://newsroom.arm.com/blog/international-women-in-engineering-day-2024-arm
+• Arm Developer Program: Women Engineering Spotlight. Read more: https://newsroom.arm.com/blog/women-engineering-spotlight
+• YCEM AI Webinar. Read more +: https://www.ycem.org/events/past-events/exploring-the-world-of-ai
+Project Highlights: 
+• Virtual KYC Analyst (4th-IR, 2022 - present): Serves as the AI lead on an NLP-driven KYC platform; that reduces customer onboarding risk while improving compliance
+accuracy.
+• IBM WatsonX GenAI Challenge (2024): 1st Place Winner (Team of 5) for building a
+business-impacting GenAI solution. Read More:
+ https://de.newsroom.ibm.com/watsonx-GenAI-Challenge-Switzerland
+• AI Blockchain Integration for Profila: Led a team to merge AI with blockchain for ethical data monetization. Read More: https://www.profila.com/
+• Edge AI with TinyML: Designed the “TinyML on Arm with PyTorch and Executorch” course to aid global developers, especially in resource-constrained settings. Read More: https://learn.arm.com/learning-paths/embedded-and-microcontrollers/introduction-to-tinyml-on-arm/ 
+• Cardiac Arrhythmia Detection: Co-led the development of a portable ECG device with
+machine learning integrated to detect and classify 14 types of Cardiac arrhythmia,
+presented at an international research conference in Japan.</t>
         </is>
       </c>
       <c r="E623" s="2" t="inlineStr"/>
@@ -12744,28 +12983,30 @@
       <c r="I649" t="inlineStr"/>
     </row>
     <row r="650">
-      <c r="A650" s="2" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
+      <c r="A650" s="2" t="n">
+        <v>188</v>
       </c>
       <c r="B650" s="2" t="inlineStr">
         <is>
-          <t>sakigokul</t>
+          <t>Haichen</t>
         </is>
       </c>
       <c r="C650" s="2" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Zhang</t>
         </is>
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+With years of AI/ML experience, I have provided pytorch distributed training to the local internet customers when i worked for NVIDIA two years ago, and now, i worked for the AMD AI team, mainly focus on the Pytorch training/inference on AMD Rocm platform. Once selected, i will continue providing customer-oriented training and actively engaged in the pytorch eco-system activities. Thanks so much!
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E650" s="2" t="inlineStr"/>
@@ -13255,28 +13496,31 @@
       <c r="I676" t="inlineStr"/>
     </row>
     <row r="677">
-      <c r="A677" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="A677" s="2" t="n">
+        <v>181</v>
       </c>
       <c r="B677" s="2" t="inlineStr">
         <is>
-          <t>Sumantro</t>
+          <t>Gaurav</t>
         </is>
       </c>
       <c r="C677" s="2" t="inlineStr">
         <is>
-          <t>Mukherjee</t>
+          <t>Sarkar</t>
         </is>
       </c>
       <c r="D677" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will engage with community by knowledge sharing on topics which are less covered. Practical sessions on how to get started with pytorch. Post blogs and educational content on internet. I will take initiative like conducting events with other ogs in the industry. I will start mentoring college students and help them to upskill. I have 15K linkedin family, It will also help to create and impact to large number of people.
+Youtube link:- https://youtu.be/mCwpsT8597o?si=0zrSLigLB0M0Ae5D
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am going to publish my course on Deep learning with pytorch with one of the leading platform for data science. I have fixed bugs and contributed in open source in pytorch codebase. Also contributed a model in huggingface optimum repository. I constantly share my views and learning on Pytorch. Recently I have submitted a research paper in Neurips 2025 on new activation function. I have delivered number of talks in different companies like Adani, Mahindra, MIT-Bangalore, Google Developer Student Club etc.</t>
         </is>
       </c>
       <c r="E677" s="2" t="inlineStr"/>
@@ -13766,28 +14010,47 @@
       <c r="I703" t="inlineStr"/>
     </row>
     <row r="704">
-      <c r="A704" s="2" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
+      <c r="A704" s="2" t="n">
+        <v>178</v>
       </c>
       <c r="B704" s="2" t="inlineStr">
         <is>
-          <t>Bingqing</t>
+          <t>Efe</t>
         </is>
       </c>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Guo</t>
+          <t>Güler</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to expand PyTorch adoption, education, and innovation across Turkish universities and developer communities. My contributions will focus on scalable education, mentorship, and open-source collaboration. Specifically, I will:
+    I currently serve as the President of Google Developer Groups on Campus at METU, the most active AI student community in Turkey’s leading technical university. In the Fall 2025 semester, I will organize a comprehensive AI/ML training series targeted at students interested in machine learning. Last year, this program attracted over 250 participants, with 122 successfully completing the course and receiving certification. Among them, 30 students were selected to join applied AI project teams. This year’s training will go beyond fundamentals and mathematical intuition by also integrating practical implementation through PyTorch. This will cultivate a new generation of highly capable students trained in PyTorch and deep learning. The Ambassador title will help increase the visibility and credibility of this training initiative.
+1 - As in the previous year (materials from last year: https://github.com/GDG-on-Campus-METU/ai-ml-materials), all educational content will be released as open-source, allowing other institutions and individual learners to benefit freely. This will promote wider access to high-quality AI education and directly support the growth of the PyTorch community.
+2 - Students trained through GDG METU benefit from hands-on mentorship that supports both their learning journey and their project development. As a PyTorch Ambassador, I—alongside the AI/ML coordinators within our community—will continue offering one-on-one mentorship throughout the year, helping nurture a new generation of technically proficient PyTorch users and AI developers.
+3 - I will collaborate with GDG communities in other universities to organize joint events, and I will be able to represent the PyTorch community as a speaker or workshop host at these campuses. This will expand PyTorch’s presence in the national student ecosystem.
+4 - PyTorch is the primary framework used in most of our community's AI/ML projects, and we will continue to build on it. This ensures that students graduate with hands-on experience in PyTorch and reinforces the framework’s ecosystem within Turkey’s academic and student research environments.
+Ultimately, my motivation for becoming a PyTorch Ambassador is to strengthen the recognition of a tool we already actively use, while building a sustainable pipeline that spans from education to applied research—all centered around PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I bring strong academic depth and practical experience to the ambassador role. As an undergraduate researcher at ROMER, the Center for Robotics and AI at METU, I am actively working on two PyTorch-based research directions:
+1 - Transformation-invariant point cloud representation learning using PyTorch3D, focusing on building robust 3D encoders for robotic perception.
+2 - Similarity learning across heterogeneous data types using CorrNet, with an emphasis on modeling incompleteness and incorrectness in multi-modal representations.
+Beyond research, I lead several PyTorch-based applied AI projects through GDG METU:
+1 - Alaz: A full-stack autonomous driving platform using object detection, semantic segmentation, and classical planning. (ongoing, no repo available publicly yet, but it will)
+2 - Hector-Metubot: A campus-wide retrieval-augmented generation (RAG) chatbot built with PyTorch-based NLP models. (https://github.com/gdgc-metu-aiml/metubot)
+3 - Baksi: A CNN-powered medical imaging AI system designed to detect early indicators of stroke from brain scans. (https://github.com/efekaanguler/baksi)
+4 - ANZU: An autonomous UAV platform leveraging PyTorch for onboard computer vision and navigation tasks. (github.com/HUmutI/ANZU)
+All educational and project materials—including lecture slides, coding notebooks, and documentation—are published in English, open-source, and designed to be modular and reusable. This ensures their value beyond our university and supports collaboration across communities.
+I am also actively mentoring a new generation of PyTorch users within my community. Many of our past trainees are now leading their own sub-projects and mentoring others in return, creating a self-sustaining talent pipeline.
+GitHub: https://github.com/efekaanguler
+LinkedIn: https://www.linkedin.com/in/efekaanguler/</t>
         </is>
       </c>
       <c r="E704" s="2" t="inlineStr"/>
@@ -14277,28 +14540,30 @@
       <c r="I730" t="inlineStr"/>
     </row>
     <row r="731">
-      <c r="A731" s="2" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
+      <c r="A731" s="2" t="n">
+        <v>175</v>
       </c>
       <c r="B731" s="2" t="inlineStr">
         <is>
-          <t>Efe</t>
+          <t>Osman</t>
         </is>
       </c>
       <c r="C731" s="2" t="inlineStr">
         <is>
-          <t>Güler</t>
+          <t>Sesay</t>
         </is>
       </c>
       <c r="D731" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I can inspire and educate communities, promote AI innovation, foster collaboration, contribute to open-source projects, and advocate for responsible AI use—helping to grow and empower the AI ecosystem worldwide.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E731" s="2" t="inlineStr"/>
@@ -14788,28 +15053,59 @@
       <c r="I757" t="inlineStr"/>
     </row>
     <row r="758">
-      <c r="A758" s="2" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
+      <c r="A758" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="B758" s="2" t="inlineStr">
         <is>
-          <t>Osman</t>
+          <t>Sanjoy</t>
         </is>
       </c>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>Sesay</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an ambassador, I would personally take a pro-active role in the PyTorch community by conducting hands-on sessions in workshops, webinars, and hackathons in an attempt to actively involve users with different skill sets. My goal is to mentor prospective practitioners with guidance through well-documented tutorials, blog entries, and contribution to codes solving real-world scenarios. By bringing teams together and promoting open-source collaborations, my aim is to facilitate an inclusive platform where exchange and innovation emerge, ultimately leading to PyTorch projects evolving further and linking to a wide user base.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+[R1] Classification of Circulating Tumor Cells Using Machine Learning on Microfluidic Trajectory Data.
+2025 IEEE International Conference on Acoustic, Speech and Signal processing, Paper ID 4170, 2024.
+Authors: Sanjoy Kumar, Huixin Zhan, Karl Gardner, Travis Thompson, Wei Kei, Yifan Wang
+[R2] Validation of a Microfluidic Device Prototype for Cancer Detection and Identification: Circulating
+Tumor Cells Classification Based on Cell Trajectory Analysis Leveraging Cell-Based Modeling and
+Machine Learning. Interdisciplinary Sciences - Computational Life Sciences (INSC), Submission ID: INSCD-24-00574, 2024.
+Authors: Rifat Rejuan; Eugenio Aulisa; Wei Li; Travis Thompson; Sanjoy Kumar; Suncica Canic; Yifan
+Wang
+[R3] Detecting and Removing Clouds Affected Regions from Satellite Images Using Deep Learning. IPSI
+Transactions on Internet Research, vol. 19(2), pp. 13-23, 2023. [Link]
+Authors: Egharevba, Lawrence. Kumar, Sanjoy. Amini, Hadi. Adjouadi, Malek and Rishe, Naphtali
+[R4] IoT Based Health Monitoring System in Case of Older &amp; Infectious Diseases in Bangladesh. 6th
+International Conference on Engineering Research, Innovation and Education School of Applied sciences
+&amp; Technology, SUST, Sylhet, ICERIE 2021 [Link]
+Authors: Md. Irfanul Hasan Tusar1*, Sanjoy Kumar2, K.M.E. Hasan3 and Md. Shahid Iqbal4
+[R5] Research Project: Yield Curve as Recession Indicator in the Framework of Machine Learning. #2,173
+in Education Theory Research, Amazon Kindle Publisher, 2022 [Link] [Codebase]
+Author: Sanjoy Kumar
+ASIN: B09BLBYBBG
+[R6] Research Report: Skills and Employments for the Future in Bangladesh. Economic Intelligence
+Bangladesh, Powered by The Business Standard, 2024 [Link]
+Authors: Ananya Raihan, Asif Ayon, Sanjoy Kumar from DataSense
+[R7] Research Project: Performance Improvement of a Diesel Engine Power Plant with Optimal Utilization.
+Research Book, Amazon Kindle Publisher, 2022 [Link]
+Author: Sanjoy Kumar
+ASIN: B082VJBXDL
+[R8] Report: State of Work in Bangladesh Gig Economy &amp; Digital Labor Platforms. Fairwork Bangladesh
+Ratings 2022 Report, 2023 [Link]
+Collaboration: University of Oxford (Oxford Internet Institute), DataSense (iSocial Limited, Bangladesh),
+WZB</t>
         </is>
       </c>
       <c r="E758" s="2" t="inlineStr"/>
@@ -15299,28 +15595,33 @@
       <c r="I784" t="inlineStr"/>
     </row>
     <row r="785">
-      <c r="A785" s="2" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
+      <c r="A785" s="2" t="n">
+        <v>164</v>
       </c>
       <c r="B785" s="2" t="inlineStr">
         <is>
-          <t>Madan</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="C785" s="2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Valdez</t>
         </is>
       </c>
       <c r="D785" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I'm committed to getting more people involved with PyTorch by organizing training sessions tailored for students from diverse universities. These sessions will target students enrolled in AI courses or master's programs, encouraging them to use PyTorch in their projects, theses, and research. The goal is to make PyTorch a bigger part of academic learning and inspire future AI experts in Mexico.
+I've already started with introductory sessions at Tecnológico de Monterrey, where students learned about PyTorch's basics and how it can be used in AI projects. These sessions have helped me understand what students need and have paved the way for expanding to other schools.
+To show how easy and versatile PyTorch is, I'll include hands-on examples in the sessions. These examples will demonstrate how PyTorch can solve real-world problems, making the sessions engaging and useful. The sessions will be available both in-person and online to reach as many people as possible.
+I'm also planning to start a PyTorch blog as a central place for learning and community interaction. The blog will have tutorials for beginners, advanced projects, and insights into PyTorch's development. It will also cover topics such as continuous integration (CI), unit testing, and software development best practices, offering great resources for developers and researchers.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E785" s="2" t="inlineStr"/>
@@ -15810,28 +16111,32 @@
       <c r="I811" t="inlineStr"/>
     </row>
     <row r="812">
-      <c r="A812" s="2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="A812" s="2" t="n">
+        <v>162</v>
       </c>
       <c r="B812" s="2" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Mirza</t>
         </is>
       </c>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Abbas</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Being a Software Engineering student and an ML enthusiast with hands-on experience using PyTorch for various deep learning and reinforcement learning projects, I'm happy to contribute to the PyTorch Ambassador Program by building a community that will help students and developers to learn and experiment with PyTorch through hands-on projects and interactive sessions.
+I'm excited to connect with and support the PyTorch community by organizing workshops and webinars both at my university and online, helping learners understand core PyTorch concepts. I also aim to offer mentorship to students and early-stage ML enthusiasts, particularly through open-source collaboration and university student clubs. Additionally, I will actively participate in community forums, contribute to the PyTorch Discussion Boards, and collaborate on open-source projects, promoting a collaborative community.
+My goal as a PyTorch Ambassador is to bridge the gap between education and real-world applications, especially in underrepresented or beginner communities, and to inspire others to explore the potential of deep learning with PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E812" s="2" t="inlineStr"/>
@@ -16321,28 +16626,50 @@
       <c r="I838" t="inlineStr"/>
     </row>
     <row r="839">
-      <c r="A839" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A839" s="2" t="n">
+        <v>161</v>
       </c>
       <c r="B839" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Jiho</t>
         </is>
       </c>
       <c r="C839" s="2" t="inlineStr">
         <is>
-          <t>Nazif</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D839" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+👨‍👩‍👧‍👦 PyTorch Korea User Group — Local Community Leadership  
+- Mentored 20+ contributors in open-source projects focused on PyTorch Korea tutorials
+- Organized and hosted 3 large-scale PyTorch tech conferences (100+ attendees each), fostering connections between developers and researchers
+- Contributed to key community platforms, including the PyTorch Korea website and YouTube channel, by promoting engagement and sharing feedback.
+📚 Knowledge Sharing
+- Authored an official PyTorch blog post, highlighting insights from community-led events
+- Consistently shared practical tips, tutorials, and event recaps to make PyTorch more approachable for Korean users
+- Conducted research and published papers using PyTorch-based models, bridging cutting-edge technology and real-world applications
+🚀 Future Contributions as Ambassador
+- Continue hosting quarterly events (virtual &amp; in-person) to educate, support, and grow the local PyTorch community
+(e.g., selecting timely and relevant topics each quarter, inviting expert speakers, and curating engaging sessions)
+- Leverage existing platforms (website &amp; YouTube) to amplify community engagement and content visibility
+(e.g., uploading seminar materials, publishing blog posts, and repurposing content for broader reach)
+- Share success stories and technical case studies from Korea with the global PyTorch network — and actively bring back global insights, best practices, and new developments to the Korean community.
+(through active involvement in both local and global PyTorch communities, ensuring two-way knowledge flow)
+- Create accessible learning materials to support newcomers and help advanced users grow—while continuing to learn and improve myself
+(as a hands-on researcher and practitioner, I plan to study, apply, and share essential techniques through real-world use cases)
+With a proven track record in leadership, mentorship, and community development, I’m committed to helping the PyTorch Ambassador initiative thrive—both locally and globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+- PyTorch Korea User Group Community Operations Committee : https://pytorch.kr/
+- PyTorch Official Blog Posting: https://pytorch.org/blog/pt-korea-user-group-recap/?utm_campaign=4079123-PyTorch%20Blog%20Post%20Promotion&amp;utm_content=332053430&amp;utm_medium=social&amp;utm_source=linkedin&amp;hss_channel=lcp-78618366
+- PyTorch Korea Tutorials Contribution: https://github.com/PyTorchKorea/tutorials-kr
+- LinkedIn: https://www.linkedin.com/in/jih0/</t>
         </is>
       </c>
       <c r="E839" s="2" t="inlineStr"/>
@@ -16832,28 +17159,52 @@
       <c r="I865" t="inlineStr"/>
     </row>
     <row r="866">
-      <c r="A866" s="2" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="A866" s="2" t="n">
+        <v>156</v>
       </c>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Ugama</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Tanvir</t>
+          <t>Kelechi</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, the nominee would deepen her engagement with the community through:
+1. Event Hosting and Knowledge Sharing: Organizing recurring PyTorch focused events such as workshops, local meetups, online webinars, and live coding sessions to help users of all levels grow their skills.
+2. Mentorship and Community Growth: Launching mentorship initiatives to guide newcomers in learning PyTorch and contributing to open source. This would include hands on cohort based learning, one on one mentorship, and office hours for beginners.
+3. Technical Evangelism: Creating high impact educational content, including real world project tutorials, model implementation guides, and beginner to advanced video series to broaden PyTorch’s reach.
+4. Community Building in Underserved Regions: Expanding the PyTorch community in regions with limited access to ML education by collaborating with local tech hubs, universities, and developer groups.
+With a proven track record of leadership, mentorship, and technical excellence, the nominee is well positioned to contribute meaningfully as a PyTorch Ambassador and help the initiative thrive globally.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+The nominee is a passionate advocate for open source and AI accessibility. In addition to HER work with PyTorch, SHE have contributed to several community driven initiatives focused on democratizing machine learning knowledge.
+Some highlights include:
+1. Technical Writing &amp; Blogs:
+The nominee maintains a blog where SHE publish insightful tutorials on PyTorch, covering topics such as building custom neural networks, transfer learning, and best practices for deploying models in production.
+Example: https://medium.com/@ugamakelechi501/getting-started-with-pytorch-a-beginner-friendly-guide-with-hands-on-examples-a475952b9390
+https://medium.com/@ugamakelechi501/understanding-pytorchs-dataloader-how-to-efficiently-load-and-augment-data-c9eb26f61491
+https://medium.com/@ugamakelechi501/building-a-convolutional-neural-network-cnn-from-scratch-with-pytorch-eca3ffdcf2ff
+ETC
+2. Conference Talks &amp; Workshops:
+SHE have spoken at multiple AI/ML events, such as [Google Build With AI], where SHE delivered sessions on PyTorch workflows, model optimization, and real world use cases.
+3. GitHub Contributions:
+HER GitHub profile showcases a variety of PyTorch projects, including notebooks, reusable modules, and utilities for faster experimentation.
+GitHub: https://github.com/Benedictakel/Sentiment-Analysis-with-LSTM-IMDB-Dataset-.git
+https://github.com/Benedictakel/Sentiment-Analysis-with-LSTM-IMDB-Dataset-.git
+https://github.com/Benedictakel/Predicting-House-Prices-with-PyTorch.git
+4. Mentorship Programs:
+SHE have served as a mentor in several programs such as Google Summer of Code (GSoC), AI Saturdays, and local university initiatives, helping students contribute to open source projects and deepen their understanding of machine learning with PyTorch.
+The nominee exemplifies the spirit of community, collaboration, and continuous learning—qualities that make them an excellent choice for the PyTorch Ambassador role.</t>
         </is>
       </c>
       <c r="E866" s="2" t="inlineStr"/>
@@ -17343,28 +17694,35 @@
       <c r="I892" t="inlineStr"/>
     </row>
     <row r="893">
-      <c r="A893" s="2" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
+      <c r="A893" s="2" t="n">
+        <v>154</v>
       </c>
       <c r="B893" s="2" t="inlineStr">
         <is>
-          <t>Ugama</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C893" s="2" t="inlineStr">
         <is>
-          <t>Kelechi</t>
+          <t>Ferrer</t>
         </is>
       </c>
       <c r="D893" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a dedicated AI researcher and practitioner, I am eager to contribute as a PyTorch Ambassador by fostering community engagement, knowledge sharing, and mentorship within the PyTorch ecosystem.
+With a strong background in computer vision and deep learning, I have actively participated in events like NVIDIA's GTC, where I engaged with cutting-edge developments in AI . My research on marine debris detection using advanced models like DiffusionDet demonstrates my commitment to applying PyTorch in real-world scenarios . I plan to organize workshops and webinars to share insights on such applications, making complex concepts accessible to a broader audience.
+Recognizing the importance of guidance in the AI journey, I aim to mentor aspiring practitioners by providing resources, code examples, and personalized support. By creating a collaborative environment, I hope to empower others to contribute to the PyTorch community confidently.
+I intend to host meetups and collaborative sessions focusing on PyTorch's applications in various domains. These events will serve as platforms for knowledge exchange, networking, and fostering innovation within the community.
+In summary, my dedication to AI research, combined with a passion for community building and mentorship, positions me to make meaningful contributions as a PyTorch Ambassador.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+LinkedIn Profile: https://www.linkedin.com/in/alejandro-sanchez-ferrer/
+Portfolio: https://asferrer.streamlit.app/</t>
         </is>
       </c>
       <c r="E893" s="2" t="inlineStr"/>
@@ -17854,28 +18212,40 @@
       <c r="I919" t="inlineStr"/>
     </row>
     <row r="920">
-      <c r="A920" s="2" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+      <c r="A920" s="2" t="n">
+        <v>148</v>
       </c>
       <c r="B920" s="2" t="inlineStr">
         <is>
-          <t>Eikan</t>
+          <t>Dr.</t>
         </is>
       </c>
       <c r="C920" s="2" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Rahevar</t>
         </is>
       </c>
       <c r="D920" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I would actively engage with the PyTorch community by fostering inclusive spaces for learning, collaboration, and innovation. My focus would be on building bridges between beginners, researchers, and developers, ensuring that knowledge flows freely across experience levels.
+Planned Events and Activities: I will organize a series of events such as:
+1. PyTorch Bootcamp: A 2–3 day event introducing neural networks, PyTorch basics, and hands-on model building.
+2. Project Hackathons: Themed hackathons (e.g., healthcare, agriculture, environment) encouraging students to build solutions using PyTorch.
+3. Weekly PyTorch Labs: Guided coding sessions on CNNs, RNNs, GANs, and transformers using datasets like MNIST, CIFAR-10, and IMDB.
+4. Model Zoo Showcase: Students explore and fine-tune pre-trained models from PyTorch Hub.
+5. “ML Explained” Peer Talks: Students present and explain PyTorch-based ML/DL concepts to their peers, enhancing collaborative learning.
+🔹 Mentorship and Knowledge Sharing
+I will offer mentorship to students interested in research, projects, or Kaggle competitions using PyTorch. I’ll also maintain a GitHub repository and a Discord/WhatsApp group for sharing resources, model code, and best practices. My focus will be on helping students build solid portfolios through PyTorch.
+By organizing these initiatives, I hope to foster a collaborative and innovative ML/DL community on campus, where PyTorch becomes the go-to framework for practical AI development.
+These events will be open and inclusive, encouraging participation from underrepresented groups and academic communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E920" s="2" t="inlineStr"/>
@@ -18365,28 +18735,35 @@
       <c r="I946" t="inlineStr"/>
     </row>
     <row r="947">
-      <c r="A947" s="2" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A947" s="2" t="n">
+        <v>147</v>
       </c>
       <c r="B947" s="2" t="inlineStr">
         <is>
-          <t>Masahiro</t>
+          <t>TAMWO</t>
         </is>
       </c>
       <c r="C947" s="2" t="inlineStr">
         <is>
-          <t>Hiramori</t>
+          <t>VALERE</t>
         </is>
       </c>
       <c r="D947" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate advocate for data science and machine learning, I am eager to contribute to the PyTorch community as an Ambassador by fostering engagement, driving innovation, and empowering others to leverage PyTorch’s capabilities. 
+My commitment to learning and sharing knowledge, coupled with my technical experience in data analysis and programming, positions me to make a meaningful impact in the following ways:
+Community Engagement: I plan to actively engage with the PyTorch community by participating in discussions on platforms like the PyTorch Discussion Forums, Slack, and discuss.pytorch.org. Drawing from my experience in collaborative projects, such as designing ETL workflows and analyzing datasets, I will contribute insights on practical applications of PyTorch in data science, particularly for beginners and intermediate users. 
+Helping the Initiative Thrive: To help the PyTorch initiative thrive, I will promote its open-source ecosystem by creating educational content tailored to aspiring data scientists. This includes writing blog posts or tutorials on topics like building neural networks with PyTorch or integrating it with tools like KNIME for data preprocessing. My prior work on data mining projects, such as analyzing patterns in large datasets, equips me to showcase PyTorch’s strengths in handling complex machine learning tasks. Additionally, I will highlight success stories from my local community, amplifying PyTorch’s impact and inspiring others to contribute to the ecosystem.
+Hosting Events: I plan to organize at least one event per quarter, as required by the PyTorch Ambassador Program, to foster local and virtual community growth. For example, I could host a virtual workshop on “Getting Started with PyTorch for Data Science,
+Mentoring: Mentoring is a cornerstone of my vision as a PyTorch Ambassador. I am committed to supporting new users by offering one-on-one guidance through platforms like MentorCruise or PyTorch’s community channels. My approach will focus on helping learners overcome common challenges, such as debugging PyTorch code or optimizing models
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Personal Website and Portfolio: I have developed a professional website, https://www.feuwofranck.tech/, which serves as a portfolio showcasing my technical projects and passion for technology. The site highlights my work in web development and data analysis, including experiments with Python-based projects</t>
         </is>
       </c>
       <c r="E947" s="2" t="inlineStr"/>
@@ -18876,28 +19253,35 @@
       <c r="I973" t="inlineStr"/>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="A974" s="2" t="n">
+        <v>144</v>
       </c>
       <c r="B974" s="2" t="inlineStr">
         <is>
-          <t>Sarthak</t>
+          <t>Bassey</t>
         </is>
       </c>
       <c r="C974" s="2" t="inlineStr">
         <is>
-          <t>Purohit</t>
+          <t>Ene</t>
         </is>
       </c>
       <c r="D974" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a nominee, I’ll engage with the PyTorch community by being an active contributor, hosting hands-on workshops, and supporting open discussions. I plan to organize events like contributor sprints and mentoring sessions to help new and diverse voices grow. I’ll also share knowledge through clear tutorials, talks, and community-driven resources to make PyTorch more accessible and collaborative for everyone.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://x.com/HODLer300?t=AEflf_hrojKAdRadNzRRow&amp;s=09
+https://x.com/HODLer300/status/1907494269641965823?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1908116773091627051?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1920769636510900269?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1919496562939453715?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19
+https://x.com/HODLer300/status/1921633127509713014?t=0EFuAueb8ga5b9j3hefd0A&amp;s=19</t>
         </is>
       </c>
       <c r="E974" s="2" t="inlineStr"/>
@@ -19387,28 +19771,30 @@
       <c r="I1000" t="inlineStr"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="2" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
+      <c r="A1001" s="2" t="n">
+        <v>140</v>
       </c>
       <c r="B1001" s="2" t="inlineStr">
         <is>
-          <t>Hossain</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="C1001" s="2" t="inlineStr">
         <is>
-          <t>Kabir</t>
+          <t>Persson</t>
         </is>
       </c>
       <c r="D1001" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+help popularize pytorch with tutorials, engage viewers, help with questions, mentoring, hosting events (i frequently visit bay area for work).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1001" s="2" t="inlineStr"/>
@@ -19898,28 +20284,30 @@
       <c r="I1027" t="inlineStr"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="2" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
+      <c r="A1028" s="2" t="n">
+        <v>137</v>
       </c>
       <c r="B1028" s="2" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C1028" s="2" t="inlineStr">
         <is>
-          <t>Persson</t>
+          <t>Chan</t>
         </is>
       </c>
       <c r="D1028" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Organize event , looking for speaker
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://gdg.community.dev/gdg-cloud-hong-kong/</t>
         </is>
       </c>
       <c r="E1028" s="2" t="inlineStr"/>
@@ -20409,28 +20797,36 @@
       <c r="I1054" t="inlineStr"/>
     </row>
     <row r="1055">
-      <c r="A1055" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
+      <c r="A1055" s="2" t="n">
+        <v>132</v>
       </c>
       <c r="B1055" s="2" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>Aakash</t>
         </is>
       </c>
       <c r="C1055" s="2" t="inlineStr">
         <is>
-          <t>Toqeer</t>
+          <t>Rana</t>
         </is>
       </c>
       <c r="D1055" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate community leader and AI enthusiast, I would contribute to the PyTorch community by actively organizing events, workshops, and hands-on sessions focused on AI, ML, and PyTorch. Currently enrolled in the Fusemachines AI Fellowship, I am deepening my technical expertise in PyTorch and plan to share this knowledge through local meetups, online sessions, and collaborative projects.
+Being selected as a top 20 Leapfrog Student Partner from over 1000 applicants highlights my ability to engage and lead communities. I am also one of the core organizers for Ubucon Asia 2025 and regularly host AI and ML workshops in Nepal. As a community speaker and trainer, I aim to introduce PyTorch to students and professionals through beginner-friendly workshops, advanced sessions, and mentorship programs, ensuring consistent engagement and growth in the local AI community.
+My vision is to build an inclusive and open learning space where people from diverse backgrounds can explore PyTorch, work on real projects, and contribute to open-source initiatives. By collaborating with existing AI communities in Nepal and international networks, I would help extend PyTorch’s reach and impact.
+I strongly align with the PyTorch Foundation’s values of openness, inclusion, and collaboration, and I believe my background in AI education, active community engagement, and hands-on technical experience makes me a perfect fit for this program.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Along with my active involvement in the AI and tech community, I have built strong connections with Nepal’s leading tech leaders, community organizers, government officials, and university heads through my participation in various national and regional events. This network gives me a unique advantage to promote PyTorch at a wider scale — reaching universities, tech companies, and communities across Nepal.
+I believe this platform would allow me to not only organize impactful events but also collaborate with influential stakeholders to introduce PyTorch in academic curriculums, tech meetups, and national-level conferences.
+Here’s my LinkedIn for a closer look at my work and network: https://www.linkedin.com/in/aakashrana7
+I’m truly excited about the chance to serve as a PyTorch Ambassador and help grow an inclusive, knowledgeable, and active AI community in Nepal and beyond.</t>
         </is>
       </c>
       <c r="E1055" s="2" t="inlineStr"/>
@@ -20920,28 +21316,36 @@
       <c r="I1081" t="inlineStr"/>
     </row>
     <row r="1082">
-      <c r="A1082" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
+      <c r="A1082" s="2" t="n">
+        <v>129</v>
       </c>
       <c r="B1082" s="2" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C1082" s="2" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D1082" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Creating/translating existing tutorials and other learning resources in (vernacular) Tamil  to accelerate the learning.
+Hosting events in the city and its neighbouring cities to educate and mentor the students in Technical institutions and members of start-ups to use PyTorch for Deep learning solutions.
+Conducting regional competitions for students to showcase their projects built using PyTorch.
+Building and nurturing a vibrant local community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Slides: https://iitm-pod.slides.com/arunprakash_ai/decks/dl 
+Teaching in (vernacular) Tamil :  https://www.youtube.com/watch?v=KOiaOx0NFxc 
+Blog: https://arunprakash-a.github.io/
+Google Scholar: https://scholar.google.com/citations?user=NAbnpmEAAAAJ&amp;hl=en</t>
         </is>
       </c>
       <c r="E1082" s="2" t="inlineStr"/>
@@ -21431,28 +21835,35 @@
       <c r="I1108" t="inlineStr"/>
     </row>
     <row r="1109">
-      <c r="A1109" s="2" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="A1109" s="2" t="n">
+        <v>125</v>
       </c>
       <c r="B1109" s="2" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Emre</t>
         </is>
       </c>
       <c r="C1109" s="2" t="inlineStr">
         <is>
-          <t>AbdulRazek</t>
+          <t>Kurtoglu</t>
         </is>
       </c>
       <c r="D1109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Hi,
+I received my PhD from The Univ. of Alabama. Currently, I work as an ML engineer at The Rockefeller University's Data Science Platform (DSP). The DSP department is founded last year, and we are currently 7 ML engineers. 
+We collaborate with researchers from biology and neuroscience labs to advance their research. We often attend different labs' weekly meetings and try to identify projects that we can work on. Our process often includes applying SOTA ML models to their datasets where PyTorch is the main framework we use. 
+There are also data science related groups at the university where we can promote PyTorch's events and schedule workshop-like meetings. Time-to-time they organize Python and data visualization workshops. I think, this can be a great opportunity to engage with The Rockefeller University's researchers. Looking forward to hearing back from you!
+Best,
+Emre
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1109" s="2" t="inlineStr"/>
@@ -21942,28 +22353,33 @@
       <c r="I1135" t="inlineStr"/>
     </row>
     <row r="1136">
-      <c r="A1136" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A1136" s="2" t="n">
+        <v>119</v>
       </c>
       <c r="B1136" s="2" t="inlineStr">
         <is>
-          <t>Karn</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C1136" s="2" t="inlineStr">
         <is>
-          <t>Watcharasupat</t>
+          <t>Bhandari</t>
         </is>
       </c>
       <c r="D1136" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I'm aims to play a pivotal role in growing and strengthening the PyTorch community across Nepal and the South Asian region. With extensive experience in deep learning, community building, and technical education, I will committed to making PyTorch more accessible through a range of impactfull initiatives.
+I have plans to organize recurring PyTorch-focused events, including local meetups, hands-on workshops, and virtual seminars, targeting students, developers, and researchers. He also intends to collaborate with universities and tech hubs to integrate PyTorch into academic curricula and open machine learning clubs in partnership with student communities.
+In addition to event organizing, I will mentor aspiring practitioners through open-source contribution sprints, code reviews, and model deployment tutorials. He also plans to continue producing high-quality technical content — such as blog posts, Jupyter notebooks, and YouTube walkthroughs — focused on real-world applications of PyTorch in computer vision and NLP.
+By leveraging his growing influence as a community educator and open-source contributor, I will foster a collaborative, inclusive, and resource-rich environment where developers can learn, grow, and innovate using PyTorch. His goal is to reduce entry barriers, empower underrepresented developers, and ensure PyTorch becomes the go-to framework for the next generation of AI practitioners in the region.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1136" s="2" t="inlineStr"/>
@@ -22453,28 +22869,32 @@
       <c r="I1162" t="inlineStr"/>
     </row>
     <row r="1163">
-      <c r="A1163" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="A1163" s="2" t="n">
+        <v>116</v>
       </c>
       <c r="B1163" s="2" t="inlineStr">
         <is>
-          <t>Giulio</t>
+          <t>Sandin</t>
         </is>
       </c>
       <c r="C1163" s="2" t="inlineStr">
         <is>
-          <t>Russo</t>
+          <t>Maheeshakya</t>
         </is>
       </c>
       <c r="D1163" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Community Ambassador, the nominee would contribute by fostering a vibrant, inclusive, and collaborative environment for PyTorch users at all levels. With a strong background in deep learning and active experience using PyTorch in both academic and real-world projects, the nominee is well-positioned to share knowledge, mentor newcomers, and create resources that demystify PyTorch for broader audiences.
+They would lead local meetups, workshops, and online sessions to educate and inspire fellow developers, researchers, and students. Additionally, the nominee is passionate about open-source contribution and would actively engage with the PyTorch ecosystem—whether by contributing to tutorials, writing blog posts, or submitting pull requests—to enhance the framework and its documentation.
+Their commitment to community growth, technical expertise, and strong communication skills make them a valuable advocate for PyTorch and an inspiring leader within the global AI/ML community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1163" s="2" t="inlineStr"/>
@@ -22964,28 +23384,32 @@
       <c r="I1189" t="inlineStr"/>
     </row>
     <row r="1190">
-      <c r="A1190" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
+      <c r="A1190" s="2" t="n">
+        <v>109</v>
       </c>
       <c r="B1190" s="2" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Vash</t>
         </is>
       </c>
       <c r="C1190" s="2" t="inlineStr">
         <is>
-          <t>Elsayed</t>
+          <t>Puno</t>
         </is>
       </c>
       <c r="D1190" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will immediately immerse myself in the PyTorch community by organizing hands-on workshops and hackathons that bridge the gap between theory and practice. Drawing on my experience leading university-level Java workshops for over 200 attendees, I’ll host monthly deep-dive sessions—starting with tensor fundamentals and progressing to end-to-end CNN deployment on Azure. To spark broader excitement, I’ll co-curate a “PyTorch in Manila” hackathon that pairs newcomers with seasoned practitioners, complete with livestreamed talks and creative challenges.
+Dedicated to open source, I will give my best to release a "PyTorch AI Chatbot" GitHub repository—along with CI/CD pipelines through GitHub Actions—and encourage community contributions through a separate Discord channel where members may submit feature proposals, create pull requests, and highlight extensions. I also plan to establish partnerships with Metro Manila's computer science programs, incorporating PyTorch modules into course curricula and obtaining GPU sponsorships for student projects.
+Lastly, tapping into my background of presenting at local tech summits and coaching hackathon teams to podium finishes, I'll pitch PyTorch-themed presentations to meetups such as PUP Microsoft Student Community and Web3PH so that both academia and industry get to benefit from my work. This way, I won't only be mentoring Manila's PyTorch community—I'll enable it to thrive across the country.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1190" s="2" t="inlineStr"/>
@@ -23475,28 +23899,30 @@
       <c r="I1216" t="inlineStr"/>
     </row>
     <row r="1217">
-      <c r="A1217" s="2" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="A1217" s="2" t="n">
+        <v>108</v>
       </c>
       <c r="B1217" s="2" t="inlineStr">
         <is>
-          <t>Nicabed</t>
+          <t>Jayed</t>
         </is>
       </c>
       <c r="C1217" s="2" t="inlineStr">
         <is>
-          <t>Gathaba</t>
+          <t>Mansur</t>
         </is>
       </c>
       <c r="D1217" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a B.Tech student in Artificial Intelligence at Kathmandu University with experience in machine learning, data science, and community engagement, I aim to make deep learning more accessible through the PyTorch Ambassador role. I plan to host beginner-friendly workshops, organize hackathons, create hands-on tutorials, and mentor peers working on AI projects. By sharing practical resources and fostering collaboration, I hope to help students build real-world applications with PyTorch and contribute to an inclusive, active community where learning and open-source growth thrive.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1217" s="2" t="inlineStr"/>
@@ -23986,28 +24412,41 @@
       <c r="I1243" t="inlineStr"/>
     </row>
     <row r="1244">
-      <c r="A1244" s="2" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
+      <c r="A1244" s="2" t="n">
+        <v>104</v>
       </c>
       <c r="B1244" s="2" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Akaash</t>
         </is>
       </c>
       <c r="C1244" s="2" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Tripathi</t>
         </is>
       </c>
       <c r="D1244" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Community Engagement &amp; Growth:
+Drawing on his role as Community Growth Manager at Where U Elevate—where he doubled user engagement through data‑driven strategy and market research—Akaash would establish and moderate a “Torch Corner” channel (Slack/Discord) for real‑time Q\&amp;A and code reviews. He’d run bi‑weekly office hours and AMAs, just as he collaborated with senior QA teams at Paytm to troubleshoot automation scripts, ensuring rapid resolution of PyTorch user issues.&amp;#x20;
+Event Planning &amp; Execution:
+As TFUG Ghaziabad Lead, Akaash organized 20 events (11 online) in two years—growing membership to 8,000+ and earning Google For Developers’ “Most Impactful Community” award. He’ll apply that same event‑management rigor to PyTorch: from foundational “Tensors &amp; Autograd” bootcamps to advanced distributed‑training workshops and 48‑hour “Torchathons,” partnering with university AI clubs (e.g., NITRA Technical Campus) and industry sponsors for venues, GPU credits, and swag.&amp;#x20;
+Open‑Source &amp; Mentoring:
+Building on his mentorship at TreeHacks and GSSOC—where he guided teams in ML model integration and cloud API debugging—Akaash will host quarterly “PyTorch Fixathons,” pairing newcomers with experienced maintainers to tackle beginner‑friendly GitHub issues. He’ll launch a one‑on‑one mentorship program with clear milestones (“Implement ResNet block by Week 2; TorchScript export by Week 4”), modeled on his structured support of community members at TFUG.&amp;#x20;
+Knowledge Sharing:
+Akaash’s technical writing experience (projects in anomaly detection using Python/Pandas and Azure Cognitive Services; GUI tools in Tkinter) equips him to produce blog posts and video tutorials on PyTorch best practices—custom modules, optimization tricks, deployment with TorchScript. He’ll maintain a public “PyTorch Learning Roadmap” and community “cookbook” of recipes, akin to his algorithmic LCM project, ensuring reproducible, low‑cost solutions.&amp;#x20;
+Success Metrics &amp; Feedback:
+He will track active channel membership growth, event attendance, number of PRs merged from new contributors, and mentorship pair completions—mirroring his data‑driven achievements at Where U Elevate and TFUG—and iterate formats based on post‑event surveys and community polls.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Medium Link: https://medium.com/@tripathiakaash
+TFUG Ghaziabad: https://www.commudle.com/communities/tensorflow-user-group-ghaziabad
+LinkedIn: https://www.linkedin.com/in/akaash-t-bb9211212/</t>
         </is>
       </c>
       <c r="E1244" s="2" t="inlineStr"/>
@@ -24497,28 +24936,31 @@
       <c r="I1270" t="inlineStr"/>
     </row>
     <row r="1271">
-      <c r="A1271" s="2" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+      <c r="A1271" s="2" t="n">
+        <v>101</v>
       </c>
       <c r="B1271" s="2" t="inlineStr">
         <is>
-          <t>Harini</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C1271" s="2" t="inlineStr">
         <is>
-          <t>Anand</t>
+          <t>Mouad</t>
         </is>
       </c>
       <c r="D1271" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+A researcher or educator using PyTorch in academic work or training.
+An active contributor to PyTorch repositories (e.g., commits, PRs, discussions).
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1271" s="2" t="inlineStr"/>
@@ -25008,28 +25450,33 @@
       <c r="I1297" t="inlineStr"/>
     </row>
     <row r="1298">
-      <c r="A1298" s="2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+      <c r="A1298" s="2" t="n">
+        <v>100</v>
       </c>
       <c r="B1298" s="2" t="inlineStr">
         <is>
-          <t>Varanasi</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C1298" s="2" t="inlineStr">
         <is>
-          <t>Akhil</t>
+          <t>Subrata</t>
         </is>
       </c>
       <c r="D1298" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As an aspiring PyTorch Ambassador, I am committed to cultivating a vibrant and inclusive PyTorch community in Melbourne and across Australia. While Australia has a growing tech scene, the AI/ML community still lacks the momentum seen in regions like the US. I aim to change that by actively engaging with leading Australian universities and institutions to host impactful events, hands on workshops, reading groups, mentorship programs, and regular community meetups.
+My goal is to make PyTorch the center of Australia’s AI movement supporting students, researchers, and professionals in deep learning development, encouraging open source contributions towards ai and pytorch, and fostering cross-institutional collaboration. By building strong local networks and connecting them to the global AI community, I hope to help position Australia as a key contributor and producer in the future of machine learning and artificial intelligence especially with PyTorch as the head of the spear.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://au.linkedin.com/in/peternelsonsubrata
+https://github.com/PewterZz
+https://scholar.google.com/citations?user=KDpPzuQAAAAJ&amp;hl=en</t>
         </is>
       </c>
       <c r="E1298" s="2" t="inlineStr"/>
@@ -25519,28 +25966,30 @@
       <c r="I1324" t="inlineStr"/>
     </row>
     <row r="1325">
-      <c r="A1325" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="A1325" s="2" t="n">
+        <v>95</v>
       </c>
       <c r="B1325" s="2" t="inlineStr">
         <is>
-          <t>Herumb</t>
+          <t>Sandhya</t>
         </is>
       </c>
       <c r="C1325" s="2" t="inlineStr">
         <is>
-          <t>Shandilya</t>
+          <t>Karki</t>
         </is>
       </c>
       <c r="D1325" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch ambassador, I would leverage my experience in data science and passion for technology to inspire and engage the PyTorch community. Through my leadership roles in global tech networks, I have honed my ability to advocate for diversity and inclusion in AI, and I would bring that same dedication to promoting PyTorch. I would focus on empowering underrepresented groups in tech, organizing educational initiatives, and fostering collaboration to drive innovation within the PyTorch ecosystem. My goal would be to make PyTorch more accessible, especially to those in underserved communities, while supporting its growth as a leading deep learning framework.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1325" s="2" t="inlineStr"/>
@@ -26030,28 +26479,58 @@
       <c r="I1351" t="inlineStr"/>
     </row>
     <row r="1352">
-      <c r="A1352" s="2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="A1352" s="2" t="n">
+        <v>83</v>
       </c>
       <c r="B1352" s="2" t="inlineStr">
         <is>
-          <t>NOMTHANDAZO</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C1352" s="2" t="inlineStr">
         <is>
-          <t>TSHUMA</t>
+          <t>Anis</t>
         </is>
       </c>
       <c r="D1352" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I aim to leverage my extensive experience in research, education, community engagement, and technical content creation to actively support and expand the PyTorch community.
+My research background includes significant use of PyTorch for deep learning projects, particularly in computer vision and vision-language modeling. With publications at conferences like ICLR and NeurIPS, I have developed practical, scalable solutions using PyTorch, and I plan to translate this expertise into accessible, impactful learning resources for the broader community.
+At Cohere Labs, I've organized and hosted over 50 sessions, demonstrating a commitment to fostering vibrant, inclusive communities. I've also delivered talks at several AI/ML conferences, focusing on practical PyTorch applications and the latest advancements in deep learning.
+Looking ahead, my goal as an ambassador is to expand community-driven events, such as workshops, webinars, and meetups, tailored to diverse skill levels—from beginners to advanced practitioners. I plan to create structured mentorship programs to guide new PyTorch users, particularly focusing on underserved communities. Additionally, I aim to enhance my content creation efforts by developing comprehensive, hands-on tutorials and blogs addressing common challenges and innovative uses of PyTorch. I also aim to create a local pytorch community in **Pakistan** that will help to organize and connect local engineers and researchers and provide them with resources and sessions to move further.
+I will also prioritize collaboration with fellow ambassadors and PyTorch developers to facilitate knowledge-sharing sessions and community-driven projects that address real-world problems.
+Relevant links:
+* Cohere Labs community sessions: [https://www.youtube.com/watch?v=FoCxiZpO2lM\&amp;t=31s](https://www.youtube.com/watch?v=FoCxiZpO2lM&amp;t=31s)
+* My articles on KDnuggets: [https://www.kdnuggets.com/author/ahmad-anis](https://www.kdnuggets.com/author/ahmad-anis)
+* My Medium blog: [https://medium.com/@ahmadanis5050](https://medium.com/@ahmadanis5050)
+* My blog on cnvrg.io: [https://cnvrg.io/author/ahmad-anis](https://cnvrg.io/author/ahmad-anis)
+* My research: [https://scholar.google.com/citations?user=58X2MYsAAAAJ\&amp;hl=en](https://scholar.google.com/citations?user=58X2MYsAAAAJ&amp;hl=en)
+* Huggingface: [huggingface.co/ahmadmustafa](https://huggingface.co/ahmadmustafa)
+In essence, my mission as a PyTorch Ambassador will be to cultivate a collaborative, inclusive community, fostering education, mentorship, and innovation in PyTorch.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Hi, I am Ahmad, I am a Deep Learning engineer at [Roll.ai](https://roll.ai), Research Collaborator at Data Provenance Initiative at MIT Media Lab and Community Lead at Cohere Labs Community where I have hosted over 50 sessions. Here are some of my relevant links that showcases my community and volunteer work:
+- Blogs: 
+  - kdnuggets.com/author/ahmad-anis
+  - medium.com/@ahmadanis5050
+  - cnvrg.io/author/ahmad-anis
+- Community Lead at Cohere Labs, 50+ Sessions hosted at Cohere Labs Community: https://www.youtube.com/watch?v=FoCxiZpO2lM&amp;t=31s 
+- My Talks: 
+  - On the Limitations of Vision Language Models in Understanding Image Transforms (ResearchTrend.AI, 2025)
+  - "Image Generation with Diffusion Models" (AI Summit 10Pearls, April 2024)
+  - "Self Supervised Contrastive Deep Learning in Computer Vision" (GDG Cloud Islamabad, December 2023)
+  - "Semantic Search using Deep Learning" (GDG Cloud Islamabad, March 2023)
+  - "Deploying TensorFlow Models with Gradio and Hugging Face Spaces" (AI Summit 10Pearls, February 2023)
+  - "Language Guided Recognition using CLIP" (Google Cloud DevFest Islamabad, December 2022)
+  - "How Convolutional Neural Networks work" (DevFest Karachi, December 2022)
+- Research: https://scholar.google.com/citations?user=58X2MYsAAAAJ&amp;hl=en
+- Fellowship Lead: [Bytewise Fellowship NLP](https://www.bytewiseltd.com/fellowship) (2024)
+- Mentor: MESA @ [Foothill College](https://foothill.edu/sli/mesa/)</t>
         </is>
       </c>
       <c r="E1352" s="2" t="inlineStr"/>
@@ -26541,28 +27020,30 @@
       <c r="I1378" t="inlineStr"/>
     </row>
     <row r="1379">
-      <c r="A1379" s="2" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="A1379" s="2" t="n">
+        <v>80</v>
       </c>
       <c r="B1379" s="2" t="inlineStr">
         <is>
-          <t>Umair</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="C1379" s="2" t="inlineStr">
         <is>
-          <t>Inayat</t>
+          <t>MEDRANO</t>
         </is>
       </c>
       <c r="D1379" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+Currently creating a community of users providing trainings within my organization and looking to establish a community of programmers who actively use PyTorch and collaborate with the repository, encouraging engineers and young learners from local universities and high schools.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1379" s="2" t="inlineStr"/>
@@ -27052,28 +27533,35 @@
       <c r="I1405" t="inlineStr"/>
     </row>
     <row r="1406">
-      <c r="A1406" s="2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="A1406" s="2" t="n">
+        <v>78</v>
       </c>
       <c r="B1406" s="2" t="inlineStr">
         <is>
-          <t>Iflal</t>
+          <t>Awadelrahman</t>
         </is>
       </c>
       <c r="C1406" s="2" t="inlineStr">
         <is>
-          <t>Ismalebbe</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="D1406" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I’m nominating myself for the PyTorch Ambassador program because I’ve experienced firsthand the challenges of transitioning from academic research to deploying machine learning models in production environments. As an AI Architect at REMA 1000 in Norway, one of the largest retail companies in the Nordics, I work on building and scaling AI solutions that have real-world impact.
+Throughout my career, PyTorch has been a constant companion. All my published research papers utilized PyTorch, and it remains my framework of choice (for me and my team) for developing and implementing models in industry settings. While I haven't authored formal blog posts specifically about PyTorch, I've created numerous videos and social media posts that showcase its application in real-world scenarios, particularly focusing on MLOps, model deployment, and integration with tools like MLflow and Databricks.
+I understand that being a PyTorch Ambassador is a significant commitment and responsibility. Having for more than 2 years serving as an MLflow Ambassador and a Databricks MVP, I am well-acquainted with the dedication required to support and grow a technical community. I view this opportunity as a way to consolidate my efforts in the machine learning ecosystem and to give back to the community that has supported my growth.
+My goal is to bridge the gap between research and production, helping others navigate the complexities of deploying PyTorch models in real-world applications. I am committed to sharing my experiences, mentoring aspiring practitioners, and contributing to the PyTorch community in meaningful ways.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+www.linkedin.com/in/awadelrahman
+medium.com/@awadelrahman
+https://youtube.com/@thismonthinmlflow?si=32pxt9YOguBXCa3I</t>
         </is>
       </c>
       <c r="E1406" s="2" t="inlineStr"/>
@@ -27563,28 +28051,40 @@
       <c r="I1432" t="inlineStr"/>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="A1433" s="2" t="n">
+        <v>77</v>
       </c>
       <c r="B1433" s="2" t="inlineStr">
         <is>
-          <t>Lazhar</t>
+          <t>Satyam</t>
         </is>
       </c>
       <c r="C1433" s="2" t="inlineStr">
         <is>
-          <t>Bouacha</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D1433" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, my mission would be to build a friendly, inclusive, and innovation-driven community around deep learning. With a strong background in machine learning and computer vision, I want to help make PyTorch easier to understand and use—especially for those just beginning their journey in AI.
+One of my biggest passions is making AI practical and accessible. I truly believe that PyTorch is more than just a powerful framework—it’s a bridge between ideas and real-world solutions. Whether it's through organizing hands-on workshops, creating simple tutorials, or encouraging open-source projects, I aim to break down complex concepts so that more people can use them in meaningful ways.
+Many students and developers around the world don’t always have access to advanced tools or guidance. That’s why I see this role as a chance to reach out, share knowledge, and support those who want to learn and build with PyTorch. By mentoring others, having open discussions, and working together, we can create an environment where everyone feels welcome and empowered.
+Most importantly, I see the PyTorch Ambassador program as a way to inspire and grow with a global community. It’s about more than just code—it’s about people coming together to shape the future of AI in ethical and impactful ways. I’m excited by the idea of learning from others while helping them bring their ideas to life with PyTorch at the heart of it all.
+Together, we can turn curiosity into creativity, and challenges into opportunities—one model, one idea, and one shared goal at a time.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Connect with Me
+You can explore more of my work, projects, and community efforts through the following platforms. I share open-source contributions, educational resources, and AI insights regularly:
+Portfolio: isatyamks.vercel.app
+GitHub: github.com/isatyamks
+LinkedIn: linkedin.com/in/isatyamks
+Twitter/X: x.com/isatyamks
+These links reflect my commitment to making deep learning and PyTorch resources more accessible for everyone.</t>
         </is>
       </c>
       <c r="E1433" s="2" t="inlineStr"/>
@@ -28074,28 +28574,31 @@
       <c r="I1459" t="inlineStr"/>
     </row>
     <row r="1460">
-      <c r="A1460" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="A1460" s="2" t="n">
+        <v>75</v>
       </c>
       <c r="B1460" s="2" t="inlineStr">
         <is>
-          <t>Satyam</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="C1460" s="2" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Aslău</t>
         </is>
       </c>
       <c r="D1460" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I want to contribute to pytorch to enrich my skills in pytorch. I have some projects in pytorch and pytorch lightning.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Lists of some links for projects (for more projects please check the github https://github.com/AslauAlexandru): https://github.com/AslauAlexandru/Week-3-Headstarter-Accelerator-Project-3-Brain-Tumor-Classification-with-Neural-Networks https://github.com/AslauAlexandru/Week-1-Headstarter-Accelerator-Project-1-Customer-Churn-Prediction-with-Machine-Learning https://github.com/AslauAlexandru/Week-2-Headstarter-Accelerator-Bonus-Project-Credit-Card-Fraud-Detection-with-ML https://github.com/AslauAlexandru/Week-5-Headstarter-Accelerator-Project-5-Web-app-for-Codebase-RAG I have unpublished paper in medical image segmantation I developed a new architecture in Deep Learning the name is MADoubleResUnet++, this architecture is combination of Unet, DoubleU-Net, ResUnet and attention mechanism (such as SqeezNet and so on). I use this architecture for segmanting polyps. I have experience in python and I use tensorflow and keras, some pytorch, some pytorch lightning, sklearn, matplotlib, seaborn and so on. Programming Languages: Python, TypeScript/JavaScript, Java, SQL, PHP, C/C++, C# and Matlab (First I use almost all programming languages in Bachelor's degree and in Master's degree and second I use Python (Scikit-learn , TensorFlow, Langchain and many more) and TypeScript/JavaScript in personal projects, Headstarter Accelerator, non-research internships and so on. Software: Scikit-learn , TensorFlow, Langchain, JupyterNotebook, Google Colab, Kaggle Notebook, Pandas, Seaborn, Matplotlib, Numpy, Pytorch Lightning (some), Pytorch (some), Groq, Transformers, Ngrok, google-generativeai, OpenAI (with Groq Api Key), Streamlit and Gradio.
+Brain Tumor Classification| Open-Source( ~ inhours)-GithubNov 2024-Nov2024• Used neural networks in Python toclassify 1000 MRI scans into 3 types of possible brain diseases with custommodel•Generated multimodal MRI reports for neurosurgeonsin under 200MS after image classification, construction &amp;trainingCredit CardFraud Detection with ML|Open-source(~ inhours)-GithubOct 2024–Oct 2024• UsedML algorithms (e.g.XGBoost,Random Forest,K-Nearest Neighbors,SVM and so on) in Python to classify fraudulentor not, usedCredit Card Transactions Fraud Detection Dataset, Llama 3.1/3.2, Groqto evaluate accuracy of predicting•In this project, the task is to build an ML modelto determine whether or not a credit card transaction is fraudulent or not.US-Bank Churn Prediction|Open-source (~ inhours)-GithubSep 2025-Oct2025•Used 30k+ data set, Llama 3.1b, Groq and/or Vercel to evaluate accuracy of predicting when banking customer quits•Created an end-to-end solution complete with sending automated personalized email to banking customer based on featureengineering, normalization, model training, evaluating and hyperparameter tuning across 5 LLM models</t>
         </is>
       </c>
       <c r="E1460" s="2" t="inlineStr"/>
@@ -28585,28 +29088,55 @@
       <c r="I1486" t="inlineStr"/>
     </row>
     <row r="1487">
-      <c r="A1487" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="A1487" s="2" t="n">
+        <v>73</v>
       </c>
       <c r="B1487" s="2" t="inlineStr">
         <is>
-          <t>Dipesh</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C1487" s="2" t="inlineStr">
         <is>
-          <t>Mahato</t>
+          <t>Rebaal</t>
         </is>
       </c>
       <c r="D1487" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I am a Machine Learning Engineer and Software Engineer with 2+ years of industry experience. Additionally, I’m the Community Head Organizer of GDGoC-UoK (Google Developer Groups On Campus at the University of Karachi), and an open-source contributor with a strong commitment to using AI to build, educate, and scale responsible innovation. My journey has also included those impacted by opportunities enabled by community, technical contribution, and responding to real-world AI challenges.
+Community Leadership &amp; Developer Empowerment
+As the Google Developer Groups On Campus (GDGoC) Lead at the University of Karachi and a β-MLSA Microsoft Learn Student Ambassador, I'm proud to have:
+- Organized 30+ workshops, including 10+ on specific AI/ML-focused topics. I have also presented a 1-Day Bootcamp on Generative AI, and organized events at my university focusing on Leadership skills and community building.
+- Presented talks to 100+ students on PyTorch, Generative AI, cloud technologies, and deep learning.
+- Mentored beginner and intermediate learners using project-based sessions, utilizing growing AI technology.
+- As a community builder, I not only teach the students myself but also bring opportunities to people through collaboration with worldwide corporations (Folio3) and learning providers (DataCamp).
+As a PyTorch Ambassador, I will be extending this work by:
+- Hosting a monthly PyTorch bootcamp and hackathons (both virtual and in-person) 
+- Creating regional mentorship programs for students and early-career ML developers 
+- Creating open-source starter kits for the PyTorch ecosystem 
+Technical Knowledge Sharing
+My knowledge-sharing initiatives will also consist of deconstructing difficult PyTorch concepts into a series of tutorials that provide an application-based learning experience. I will:
+- Create blog posts and YouTube tutorials on things like mastering PyTorch, debugging models, fine-tuning open-source LLMs, RAG architectures, and TorchScript optimizations 
+- Develop open-source templates that leverage PyTorch with FastAPI and Next.js to easily create streamlined AI prototypes 
+- Run "From Zero to Model" guided challenges for beginner ML enthusiasts
+Open-Source Contributions
+My involvement with multiple open-source initiatives, such as Skore (probabl.ai), included tasks like documentation development and bug and logic fixes. I deprecated outdated Plotly usage and enhanced feature handling, simultaneously adding scikit-learn metrics, along with contributions to AiiDA, FreeCodeCamp, Certego, QuTiP, and pvlib through bug fixes, documentation updates, and enhancements.
+Vision for PyTorch Ambassadorship
+As an ambassador, I hope to:
+- Scale usage of PyTorch in underrepresented communities, specifically South Asia
+- Connect gaps between academia and industry by demonstrating how Pytorch can provide the engine needed to power real-world research (e.g., scientific ML)
+- Create communities that focus on open learning, reproducibility, and inclusion in innovation.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+References for the above Information :
+LinkedIn : https://www.linkedin.com/in/muhammad-rebaal-34936616a/
+GDGoC-UoK Site : https://gdg.community.dev/gdg-on-campus-university-of-karachi-karachi-pakistan/
+MLSA Site : https://mvp.microsoft.com/en-US/studentambassadors/profile/7c13946d-9bf0-4ec9-bf86-936baabd8ac6</t>
         </is>
       </c>
       <c r="E1487" s="2" t="inlineStr"/>
@@ -29096,28 +29626,31 @@
       <c r="I1513" t="inlineStr"/>
     </row>
     <row r="1514">
-      <c r="A1514" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A1514" s="2" t="n">
+        <v>71</v>
       </c>
       <c r="B1514" s="2" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Donny</t>
         </is>
       </c>
       <c r="C1514" s="2" t="inlineStr">
         <is>
-          <t>Rebaal</t>
+          <t>Greenberg</t>
         </is>
       </c>
       <c r="D1514" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+We've been talking about for a while how a lot of the NYC-based technical groups for discussion have actually disappeared, or switched entirely towards discussions of inference-only applications. While Torch is a critical component of inference (vLLM joining PyTorch recently, etc), inference of LLMs represents only a narrow sliver of Torch's use cases and too many of these meetups rely on third party ML. 
+Having been formerly at PyTorch as a product lead, and working on the extremes of research to extremes of production, Donny has strong technical foundations for leading both product and engineering focuses discussions (and the right network to bring people together). Then, as a startup founder and CEO, Donny's been active in the local ecosystem, giving talks in just the past 3 months at GenAI collective, MLOps NYC, New York Open Statistical Programming Meetup, AI Camp, and several others.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Donny was previously the product lead for PyTorch at Meta, supporting the AI community across research, production, OSS, and enterprise. Notable projects include TorchRec, the open-sourcing of Meta's large-scale recommendations infra, TorchArrow &amp; TorchData, PyTorch's next generation of data APIs, and unifying training infrastructure at Meta. Now he is co-founder and CEO of Runhouse, whose flagship product is called "Kubetorch" - or bringing ML workloads to Kubernetes.</t>
         </is>
       </c>
       <c r="E1514" s="2" t="inlineStr"/>
@@ -29607,28 +30140,35 @@
       <c r="I1540" t="inlineStr"/>
     </row>
     <row r="1541">
-      <c r="A1541" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A1541" s="2" t="n">
+        <v>68</v>
       </c>
       <c r="B1541" s="2" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>SIDOW</t>
         </is>
       </c>
       <c r="C1541" s="2" t="inlineStr">
         <is>
-          <t>Bhattarai</t>
+          <t>SIDOW</t>
         </is>
       </c>
       <c r="D1541" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a PyTorch Ambassador, I plan to help the PyTorch community grow by organizing regular events both online and in-person. I'll host workshops and meetups to introduce new learners to PyTorch, answer questions, and encourage people to share their experiences. Additionally, since we organize PyCon Somalia every year, I'll include hands-on PyTorch workshops in the event, giving participants practical experience.
+I will also actively contribute to the AISomalia Summit, where PyTorch-focused sessions can further engage participants and help build their skills. 
+Lastly, I will mentor students and other community members interested in artificial intelligence, guiding them to start and advance their journey with PyTorch. By leveraging these events and my community connections, I aim to inspire more people to become active users and contributors to PyTorch. I'll connecting with my existing networks like PyCon Somalia, OSCA, and AISomalia, I'll spread awareness about PyTorch and highlight success stories from our community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+https://github.com/sidowxyz
+https://www.linkedin.com/in/sidowxyz/
+https://aisomalia.ai/team/
+https://githubcampus.expert/sidowxyz</t>
         </is>
       </c>
       <c r="E1541" s="2" t="inlineStr"/>
@@ -30118,28 +30658,34 @@
       <c r="I1567" t="inlineStr"/>
     </row>
     <row r="1568">
-      <c r="A1568" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="A1568" s="2" t="n">
+        <v>64</v>
       </c>
       <c r="B1568" s="2" t="inlineStr">
         <is>
-          <t>Lucky</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="C1568" s="2" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D1568" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I won’t claim I’ll do everything perfectly from day one—but I do have the heart for it. I come from a background where access to AI and PyTorch resources isn’t easy, and I’ve seen how lost students can feel when there’s no proper guidance. That’s exactly why I want to engage with the PyTorch community—not just as a contributor, but as someone who understands the struggle and wants to make the journey easier for others.
+My plan is to start small but consistent. I’ll host beginner-friendly sessions and workshops, especially in universities where AI seems scary to most students. I want to create safe learning spaces—online or offline—where people can ask questions without feeling intimidated by those who are already ahead of them. I’ll also try to share content in both English and Urdu to make it more accessible.
+Mentorship is close to my heart too. I’ve already been helping my juniors and peers, and I’d love to continue that under the PyTorch banner—maybe by starting a study group or mentorship circle where we learn and grow together. I also plan to contribute to open-source PyTorch projects, even if it’s just by improving documentation or answering beginner questions.
+It's going to be a two-way learning process. I want to show up consistently, help where I can, and give back to the same community that helped me become who I am today.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a lab instructor at FAST NUCES Islamabad. Here is my profile URL:
+http://isb.nu.edu.pk/Faculty/Details/7125</t>
         </is>
       </c>
       <c r="E1568" s="2" t="inlineStr"/>
@@ -30629,28 +31175,39 @@
       <c r="I1594" t="inlineStr"/>
     </row>
     <row r="1595">
-      <c r="A1595" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A1595" s="2" t="n">
+        <v>61</v>
       </c>
       <c r="B1595" s="2" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Debashish</t>
         </is>
       </c>
       <c r="C1595" s="2" t="inlineStr">
         <is>
-          <t>SERÇE</t>
+          <t>Chakraborty</t>
         </is>
       </c>
       <c r="D1595" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I have been actively using PyTorch since 2018 as the foundation for my research and development work. As a Research Fellow at JHU's Center for Language and Speech Processing, I specialize in multimodal machine learning with a focus on dimensionality reduction techniques and efficient model implementations. My expertise spans the development of scalable ML systems for both academic research and practical applications. I think there is more I can give back to the community than I have taken in the last 7 years.
+My technical strengths include optimizing multimodal model architectures with PyTorch, implementing hardware-aware compression techniques for ML models, and developing custom CUDA and Triton kernels to accelerate machine learning workloads. This is evidenced by my GitHub projects such as KernelHeim, which provides custom Triton and CUDA kernel functions designed specifically for PyTorch-based ML workloads. I am also an active CUDA Mode member and contribute to discussions on the forum as well.
+I actively contribute to open-source PyTorch projects, including recent contributions to HuggingFace's nanoVLM, a minimalist Vision-Language Model implementation in pure PyTorch. I've also developed classification systems for distinguishing between human-written and machine-generated text, demonstrating my ability to leverage PyTorch's full ecosystem for creating end-to-end solutions. However, I would like to increase my footprint for contribution to the ecosystem.
+As a PyTorch Ambassador, I plan to:
+ 1. Foster a community focused on efficient ML implementations by hosting quarterly workshops on PyTorch performance optimization techniques, including model distillation, quantization, and hardware acceleration.
+ 2. Create and share educational content focused on developing custom kernels and backends for PyTorch,  making advanced optimization techniques more accessible to developers.
+ 3. Build open-source repositories showcasing multimodal ML applications with a focus on practical, production-ready code that follows best practices.
+ 4. Mentor students and professionals in applying PyTorch to multidisciplinary problems, particularly at the intersection of NLP, computer vision, and audio processing.
+ 5. Contribute to discussions around PyTorch's continued evolution, particularly in areas of model efficiency, distributed training, and hardware-specific optimizations.
+This ambassadorship will enable me to bridge my technical expertise with community engagement, helping others leverage PyTorch's capabilities while simultaneously deepening my own involvement in the global PyTorch ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1595" s="2" t="inlineStr"/>
@@ -31140,28 +31697,31 @@
       <c r="I1621" t="inlineStr"/>
     </row>
     <row r="1622">
-      <c r="A1622" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A1622" s="2" t="n">
+        <v>56</v>
       </c>
       <c r="B1622" s="2" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C1622" s="2" t="inlineStr">
         <is>
-          <t>Gbada</t>
+          <t>Melvin</t>
         </is>
       </c>
       <c r="D1622" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The Pytorch Community is quite nascent in India. Since I operate in India and part of the GPU Mode Discord server as a trusted moderator. Would like to contribute to grow the Pytorch community in India. 
+A more inperson meet up is missing in India as much as it happens in other places across the world. Hoping to be a catalyst to change that.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+Have been part of the GPU mode discord server and also contributed to pytorch AO last year on bitnet support.</t>
         </is>
       </c>
       <c r="E1622" s="2" t="inlineStr"/>
@@ -31651,10 +32211,8 @@
       <c r="I1648" t="inlineStr"/>
     </row>
     <row r="1649">
-      <c r="A1649" s="2" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="A1649" s="2" t="n">
+        <v>53</v>
       </c>
       <c r="B1649" s="2" t="inlineStr">
         <is>
@@ -31668,11 +32226,15 @@
       </c>
       <c r="D1649" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+The nominee plans to actively contribute to the PyTorch community by creating educational materials and open-access courses focusing on various PyTorch-related frameworks, such as PyTorch Geometric, BoTorch, and EvoTorch. These resources will be developed primarily for students at AGH University of Krakow and integrated into regular academic courses to help young researchers gain hands-on experience with advanced AI tools. Additionally, the nominee intends to organize local workshops and training sessions at AGH, fostering a vibrant local PyTorch community. Through mentoring, knowledge-sharing, and educational outreach, the nominee will support the growth of the PyTorch initiative and make it more accessible to the academic and research community.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+nan</t>
         </is>
       </c>
       <c r="E1649" s="2" t="inlineStr"/>
@@ -32162,28 +32724,30 @@
       <c r="I1675" t="inlineStr"/>
     </row>
     <row r="1676">
-      <c r="A1676" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A1676" s="2" t="n">
+        <v>48</v>
       </c>
       <c r="B1676" s="2" t="inlineStr">
         <is>
-          <t>Pradheep</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C1676" s="2" t="inlineStr">
         <is>
-          <t>Raghavan</t>
+          <t>Goheen</t>
         </is>
       </c>
       <c r="D1676" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+I will help to organize events in Southeast Florida – spanning from Orlando to Miami, contribute technical content, and continue contributing to PyTorch repositories and Discord communities.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I am a prior Developer Advocate and have contributed to several ecosystem repositories.</t>
         </is>
       </c>
       <c r="E1676" s="2" t="inlineStr"/>
@@ -32673,28 +33237,32 @@
       <c r="I1702" t="inlineStr"/>
     </row>
     <row r="1703">
-      <c r="A1703" s="2" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="A1703" s="2" t="n">
+        <v>41</v>
       </c>
       <c r="B1703" s="2" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Wajahat</t>
         </is>
       </c>
       <c r="C1703" s="2" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D1703" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As a passionate daily user of PyTorch in my research, I am deeply committed to contributing to the community that empowers so much of modern AI work. While I don’t claim to know everything about PyTorch, I am a fast learner and genuinely enthusiastic about exploring and building with it. What excites me most is PyTorch’s flexibility, it enables researchers and developers to build custom tools and workflows. My long term goal is to develop and opensource my own PyTorch based library that becomes widely used in the research community.
+To move toward that goal, I want to become more involved with the PyTorch community and help it grow, especially in South Korea, where I currently live. Despite the strong developer ecosystem here, I have noticed a lack of accessible PyTorch focused events especially those conducted in English. As an Ambassador, I would take the initiative to organize and host inclusive, English language events, workshops, and meetups that would welcome both local and international audiences.
+In addition to events, I love sharing knowledge and would be eager to mentor others, especially students and early career researchers. I have picked up a number of practical insights and techniques through hands on experimentation with PyTorch, and I’m excited to teach others and foster a supportive learning environment. By creating more spaces for collaboration and knowledge sharing, I hope to help the PyTorch initiative thrive and inspire others to contribute to its open-source ecosystem.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+wajahat-alikhan.github.io</t>
         </is>
       </c>
       <c r="E1703" s="2" t="inlineStr"/>
@@ -33184,28 +33752,30 @@
       <c r="I1729" t="inlineStr"/>
     </row>
     <row r="1730">
-      <c r="A1730" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="A1730" s="2" t="n">
+        <v>34</v>
       </c>
       <c r="B1730" s="2" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>ANAGHA</t>
         </is>
       </c>
       <c r="C1730" s="2" t="inlineStr">
         <is>
-          <t>KANGONI</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D1730" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
+          <t>Contributions:
+nan
+        Ambassador Pitch:
+As someone who works extensively with PyTorch, I’ve naturally grown passionate about not just building with it, but also sharing what I learn along the way. I believe in making deep learning more accessible, especially through PyTorch's intuitive design. Whether it’s breaking down complex concepts, optimizing model performance, or exploring cutting-edge research like NoProp or ViViT, I try to translate those insights into something practical and digestible for the community. Through my contributions—be it tutorials, performance analyses, or experiment write-ups—I aim to help others adopt PyTorch more effectively and confidently. It's my way of giving back to the ecosystem that’s helped shape my own journey in AI.
+        Checkbox Summary:
+        Extra Notes:
+nan
+        Additional Info:
+I write articles in medium: @anagha.srivasa</t>
         </is>
       </c>
       <c r="E1730" s="2" t="inlineStr"/>
@@ -33694,1541 +34264,8 @@
       </c>
       <c r="I1756" t="inlineStr"/>
     </row>
-    <row r="1757">
-      <c r="A1757" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B1757" s="2" t="inlineStr">
-        <is>
-          <t>Wajahat</t>
-        </is>
-      </c>
-      <c r="C1757" s="2" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="D1757" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1757" s="2" t="inlineStr"/>
-      <c r="F1757" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1757" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1757" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1757" t="inlineStr"/>
-    </row>
-    <row r="1758">
-      <c r="F1758" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1758" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1758" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1758" t="inlineStr"/>
-    </row>
-    <row r="1759">
-      <c r="F1759" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1759" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1759" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1759" t="inlineStr"/>
-    </row>
-    <row r="1760">
-      <c r="F1760" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1760" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1760" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1760" t="inlineStr"/>
-    </row>
-    <row r="1761">
-      <c r="F1761" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1761" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1761" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1761" t="inlineStr"/>
-    </row>
-    <row r="1762">
-      <c r="F1762" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1762" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1762" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1762" t="inlineStr"/>
-    </row>
-    <row r="1763">
-      <c r="F1763" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1763" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1763" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1763" t="inlineStr"/>
-    </row>
-    <row r="1764">
-      <c r="F1764" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1764" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1764" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1764" t="inlineStr"/>
-    </row>
-    <row r="1765">
-      <c r="F1765" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1765" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1765" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1765" t="inlineStr"/>
-    </row>
-    <row r="1766">
-      <c r="F1766" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1766" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1766" t="inlineStr"/>
-    </row>
-    <row r="1767">
-      <c r="F1767" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1767" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1767" t="inlineStr"/>
-    </row>
-    <row r="1768">
-      <c r="F1768" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1768" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1768" t="inlineStr"/>
-    </row>
-    <row r="1769">
-      <c r="F1769" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1769" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1769" t="inlineStr"/>
-    </row>
-    <row r="1770">
-      <c r="F1770" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1770" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1770" t="inlineStr"/>
-    </row>
-    <row r="1771">
-      <c r="F1771" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1771" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1771" t="inlineStr"/>
-    </row>
-    <row r="1772">
-      <c r="F1772" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1772" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1772" t="inlineStr"/>
-    </row>
-    <row r="1773">
-      <c r="F1773" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1773" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1773" t="inlineStr"/>
-    </row>
-    <row r="1774">
-      <c r="F1774" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1774" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1774" t="inlineStr"/>
-    </row>
-    <row r="1775">
-      <c r="F1775" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1775" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1775" t="inlineStr"/>
-    </row>
-    <row r="1776">
-      <c r="F1776" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1776" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1776" t="inlineStr"/>
-    </row>
-    <row r="1777">
-      <c r="F1777" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1777" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1777" t="inlineStr"/>
-    </row>
-    <row r="1778">
-      <c r="F1778" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1778" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1778" t="inlineStr"/>
-    </row>
-    <row r="1779">
-      <c r="F1779" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1779" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1779" t="inlineStr"/>
-    </row>
-    <row r="1780">
-      <c r="F1780" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1780" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1780" t="inlineStr"/>
-    </row>
-    <row r="1781">
-      <c r="F1781" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1781" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1781" t="inlineStr"/>
-    </row>
-    <row r="1782">
-      <c r="F1782" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1782" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1782" t="inlineStr"/>
-    </row>
-    <row r="1783">
-      <c r="F1783" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1783" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1783" t="inlineStr"/>
-    </row>
-    <row r="1784">
-      <c r="A1784" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B1784" s="2" t="inlineStr">
-        <is>
-          <t>Sagi</t>
-        </is>
-      </c>
-      <c r="C1784" s="2" t="inlineStr">
-        <is>
-          <t>Bharadwaj</t>
-        </is>
-      </c>
-      <c r="D1784" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1784" s="2" t="inlineStr"/>
-      <c r="F1784" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1784" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1784" t="inlineStr"/>
-    </row>
-    <row r="1785">
-      <c r="F1785" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1785" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1785" t="inlineStr"/>
-    </row>
-    <row r="1786">
-      <c r="F1786" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1786" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1786" t="inlineStr"/>
-    </row>
-    <row r="1787">
-      <c r="F1787" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1787" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1787" t="inlineStr"/>
-    </row>
-    <row r="1788">
-      <c r="F1788" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1788" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1788" t="inlineStr"/>
-    </row>
-    <row r="1789">
-      <c r="F1789" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1789" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1789" t="inlineStr"/>
-    </row>
-    <row r="1790">
-      <c r="F1790" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1790" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1790" t="inlineStr"/>
-    </row>
-    <row r="1791">
-      <c r="F1791" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1791" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1791" t="inlineStr"/>
-    </row>
-    <row r="1792">
-      <c r="F1792" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1792" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1792" t="inlineStr"/>
-    </row>
-    <row r="1793">
-      <c r="F1793" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1793" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1793" t="inlineStr"/>
-    </row>
-    <row r="1794">
-      <c r="F1794" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1794" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1794" t="inlineStr"/>
-    </row>
-    <row r="1795">
-      <c r="F1795" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1795" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1795" t="inlineStr"/>
-    </row>
-    <row r="1796">
-      <c r="F1796" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1796" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1796" t="inlineStr"/>
-    </row>
-    <row r="1797">
-      <c r="F1797" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1797" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1797" t="inlineStr"/>
-    </row>
-    <row r="1798">
-      <c r="F1798" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1798" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1798" t="inlineStr"/>
-    </row>
-    <row r="1799">
-      <c r="F1799" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1799" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1799" t="inlineStr"/>
-    </row>
-    <row r="1800">
-      <c r="F1800" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1800" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1800" t="inlineStr"/>
-    </row>
-    <row r="1801">
-      <c r="F1801" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1801" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1801" t="inlineStr"/>
-    </row>
-    <row r="1802">
-      <c r="F1802" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1802" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1802" t="inlineStr"/>
-    </row>
-    <row r="1803">
-      <c r="F1803" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1803" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1803" t="inlineStr"/>
-    </row>
-    <row r="1804">
-      <c r="F1804" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1804" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1804" t="inlineStr"/>
-    </row>
-    <row r="1805">
-      <c r="F1805" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1805" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1805" t="inlineStr"/>
-    </row>
-    <row r="1806">
-      <c r="F1806" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1806" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1806" t="inlineStr"/>
-    </row>
-    <row r="1807">
-      <c r="F1807" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1807" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1807" t="inlineStr"/>
-    </row>
-    <row r="1808">
-      <c r="F1808" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1808" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1808" t="inlineStr"/>
-    </row>
-    <row r="1809">
-      <c r="F1809" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1809" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1809" t="inlineStr"/>
-    </row>
-    <row r="1810">
-      <c r="F1810" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1810" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1810" t="inlineStr"/>
-    </row>
-    <row r="1811">
-      <c r="A1811" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B1811" s="2" t="inlineStr">
-        <is>
-          <t>ANAGHA</t>
-        </is>
-      </c>
-      <c r="C1811" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D1811" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contributions:
-Ambassador Pitch:
-Extra Notes:
-Additional Info:
-</t>
-        </is>
-      </c>
-      <c r="E1811" s="2" t="inlineStr"/>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1811" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>Demonstrated knowledge and practical experience with PyTorch, including model building, traininga and deployment?</t>
-        </is>
-      </c>
-      <c r="I1811" t="inlineStr"/>
-    </row>
-    <row r="1812">
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>Technical Expertise</t>
-        </is>
-      </c>
-      <c r="G1812" t="inlineStr">
-        <is>
-          <t>Proficiency with the PyTorch Ecosystem</t>
-        </is>
-      </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>Familiarity with foundation-hosted projects, vLLM, DeepSpeed?</t>
-        </is>
-      </c>
-      <c r="I1812" t="inlineStr"/>
-    </row>
-    <row r="1813">
-      <c r="F1813" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1813" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>Made commits, PRs, issues filed, and code reviews across PyTorch and its ecosystem repositories?</t>
-        </is>
-      </c>
-      <c r="I1813" t="inlineStr"/>
-    </row>
-    <row r="1814">
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1814" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>Evidence of active participation in community discussions, RFCs, and GitHub projects?</t>
-        </is>
-      </c>
-      <c r="I1814" t="inlineStr"/>
-    </row>
-    <row r="1815">
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>Open Source Contributions</t>
-        </is>
-      </c>
-      <c r="G1815" t="inlineStr">
-        <is>
-          <t>Community Contributions</t>
-        </is>
-      </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>Maintenance or leadership of related open source projects or libraries?</t>
-        </is>
-      </c>
-      <c r="I1815" t="inlineStr"/>
-    </row>
-    <row r="1816">
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1816" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>Authored technical blog posts, whitepapers, tutorials, or case studies on PyTorch or its ecosystem?</t>
-        </is>
-      </c>
-      <c r="I1816" t="inlineStr"/>
-    </row>
-    <row r="1817">
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>Thought Leadership and Technical Writing</t>
-        </is>
-      </c>
-      <c r="G1817" t="inlineStr">
-        <is>
-          <t>Publishing</t>
-        </is>
-      </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>Published academic research papers or publications in relevant scientific journals or conferences?</t>
-        </is>
-      </c>
-      <c r="I1817" t="inlineStr"/>
-    </row>
-    <row r="1818">
-      <c r="F1818" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1818" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>Experience organizing or leading community events such as meetups, conferences, study groups, or hackathons?</t>
-        </is>
-      </c>
-      <c r="I1818" t="inlineStr"/>
-    </row>
-    <row r="1819">
-      <c r="F1819" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1819" t="inlineStr">
-        <is>
-          <t>Event Organization and Involvement</t>
-        </is>
-      </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>Participation in significant developer or ML community events (e.g., NeurIPS, PyTorch Conference, ICML, CVPR,...)</t>
-        </is>
-      </c>
-      <c r="I1819" t="inlineStr"/>
-    </row>
-    <row r="1820">
-      <c r="F1820" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1820" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>Record of delivering talks, webinars, or workshops on PyTorch-related topics?</t>
-        </is>
-      </c>
-      <c r="I1820" t="inlineStr"/>
-    </row>
-    <row r="1821">
-      <c r="F1821" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1821" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>Ability to communicate complex concepts clearly to both technical and non-technical audiences?</t>
-        </is>
-      </c>
-      <c r="I1821" t="inlineStr"/>
-    </row>
-    <row r="1822">
-      <c r="F1822" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1822" t="inlineStr">
-        <is>
-          <t>Public Speaking and Presentation Skills</t>
-        </is>
-      </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>Sample video recordings or links to previous talks?</t>
-        </is>
-      </c>
-      <c r="I1822" t="inlineStr"/>
-    </row>
-    <row r="1823">
-      <c r="F1823" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1823" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>Experience mentoring students, junior developers, or researchers?</t>
-        </is>
-      </c>
-      <c r="I1823" t="inlineStr"/>
-    </row>
-    <row r="1824">
-      <c r="F1824" t="inlineStr">
-        <is>
-          <t>Community Engagement and Evangelism</t>
-        </is>
-      </c>
-      <c r="G1824" t="inlineStr">
-        <is>
-          <t>Mentorship and Education</t>
-        </is>
-      </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>Development or teaching of curricula or courses related to machine learning, deep learning, or distributed systems?</t>
-        </is>
-      </c>
-      <c r="I1824" t="inlineStr"/>
-    </row>
-    <row r="1825">
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1825" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>Active presence on platforms like Twitter, LinkedIn, YouTube, Medium, or personal blogs with a focus on machine learning, AI, or software development?</t>
-        </is>
-      </c>
-      <c r="I1825" t="inlineStr"/>
-    </row>
-    <row r="1826">
-      <c r="F1826" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1826" t="inlineStr">
-        <is>
-          <t>Social Media and Content Creation</t>
-        </is>
-      </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>Consistency and quality of content promoting PyTorch and associated tools?</t>
-        </is>
-      </c>
-      <c r="I1826" t="inlineStr"/>
-    </row>
-    <row r="1827">
-      <c r="F1827" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1827" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>High number of followers, subscribers, or consistent engagement levels with online content (&gt;10,000 followers/&gt;100,000 subs)?</t>
-        </is>
-      </c>
-      <c r="I1827" t="inlineStr"/>
-    </row>
-    <row r="1828">
-      <c r="F1828" t="inlineStr">
-        <is>
-          <t>Online Influence and Reach</t>
-        </is>
-      </c>
-      <c r="G1828" t="inlineStr">
-        <is>
-          <t>Community Impact Metrics</t>
-        </is>
-      </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>Demonstrated ability to spark discussion, share knowledge, and grow community awareness?</t>
-        </is>
-      </c>
-      <c r="I1828" t="inlineStr"/>
-    </row>
-    <row r="1829">
-      <c r="F1829" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1829" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>Commitment to open source principles, community-first development, and inclusive collaboration?</t>
-        </is>
-      </c>
-      <c r="I1829" t="inlineStr"/>
-    </row>
-    <row r="1830">
-      <c r="F1830" t="inlineStr">
-        <is>
-          <t>Alignment and Values</t>
-        </is>
-      </c>
-      <c r="G1830" t="inlineStr">
-        <is>
-          <t>Alignment with PyTorch Foundation Values</t>
-        </is>
-      </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>Advocacy for responsible AI development and ethical machine learning practices?</t>
-        </is>
-      </c>
-      <c r="I1830" t="inlineStr"/>
-    </row>
-    <row r="1831">
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1831" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>Clear articulation of why they want to be an Ambassador and what they hope to accomplish?</t>
-        </is>
-      </c>
-      <c r="I1831" t="inlineStr"/>
-    </row>
-    <row r="1832">
-      <c r="F1832" t="inlineStr">
-        <is>
-          <t>Motivation and Vision</t>
-        </is>
-      </c>
-      <c r="G1832" t="inlineStr">
-        <is>
-          <t>Vision</t>
-        </is>
-      </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>Proposed goals or initiatives that align with the mission of the PyTorch Foundation?</t>
-        </is>
-      </c>
-      <c r="I1832" t="inlineStr"/>
-    </row>
-    <row r="1833">
-      <c r="F1833" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1833" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>Contributions or bridges to other relevant ecosystems (e.g., HuggingFace?)</t>
-        </is>
-      </c>
-      <c r="I1833" t="inlineStr"/>
-    </row>
-    <row r="1834">
-      <c r="F1834" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1834" t="inlineStr">
-        <is>
-          <t>Cross-Community Collaboration</t>
-        </is>
-      </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>Integration work across tools or libraries within the AI/ML infrastructure landscape?</t>
-        </is>
-      </c>
-      <c r="I1834" t="inlineStr"/>
-    </row>
-    <row r="1835">
-      <c r="F1835" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1835" t="inlineStr">
-        <is>
-          <t>Geographic and Demographic Diversity</t>
-        </is>
-      </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>Representation from underrepresented regions or groups to foster inclusivity and global outreach?</t>
-        </is>
-      </c>
-      <c r="I1835" t="inlineStr"/>
-    </row>
-    <row r="1836">
-      <c r="F1836" t="inlineStr">
-        <is>
-          <t>Additional Bonus Criteria</t>
-        </is>
-      </c>
-      <c r="G1836" t="inlineStr">
-        <is>
-          <t>Innovation and Pioneering Work</t>
-        </is>
-      </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>Early adoption or novel application of PyTorch or its ecosystem tools in industry, research, or startups?</t>
-        </is>
-      </c>
-      <c r="I1836" t="inlineStr"/>
-    </row>
-    <row r="1837">
-      <c r="F1837" t="inlineStr">
-        <is>
-          <t>Credibility</t>
-        </is>
-      </c>
-      <c r="G1837" t="inlineStr">
-        <is>
-          <t>Community References</t>
-        </is>
-      </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>References from other known community members?</t>
-        </is>
-      </c>
-      <c r="I1837" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="340">
+  <mergeCells count="325">
     <mergeCell ref="B1703:B1729"/>
     <mergeCell ref="A974:A1000"/>
     <mergeCell ref="E1109:E1135"/>
@@ -35289,7 +34326,6 @@
     <mergeCell ref="D488:D514"/>
     <mergeCell ref="A785:A811"/>
     <mergeCell ref="C785:C811"/>
-    <mergeCell ref="C1811:C1837"/>
     <mergeCell ref="D1460:D1486"/>
     <mergeCell ref="B1622:B1648"/>
     <mergeCell ref="D1622:D1648"/>
@@ -35338,8 +34374,6 @@
     <mergeCell ref="D812:D838"/>
     <mergeCell ref="D839:D865"/>
     <mergeCell ref="A1109:A1135"/>
-    <mergeCell ref="C1757:C1783"/>
-    <mergeCell ref="E1757:E1783"/>
     <mergeCell ref="D1028:D1054"/>
     <mergeCell ref="B272:B298"/>
     <mergeCell ref="A1730:A1756"/>
@@ -35357,7 +34391,6 @@
     <mergeCell ref="D164:D190"/>
     <mergeCell ref="D1217:D1243"/>
     <mergeCell ref="C1109:C1135"/>
-    <mergeCell ref="D1784:D1810"/>
     <mergeCell ref="C434:C460"/>
     <mergeCell ref="E56:E82"/>
     <mergeCell ref="A461:A487"/>
@@ -35370,7 +34403,6 @@
     <mergeCell ref="B1406:B1432"/>
     <mergeCell ref="B1325:B1351"/>
     <mergeCell ref="D1136:D1162"/>
-    <mergeCell ref="E1811:E1837"/>
     <mergeCell ref="D1568:D1594"/>
     <mergeCell ref="E1460:E1486"/>
     <mergeCell ref="B1541:B1567"/>
@@ -35379,8 +34411,6 @@
     <mergeCell ref="E407:E433"/>
     <mergeCell ref="E434:E460"/>
     <mergeCell ref="B704:B730"/>
-    <mergeCell ref="B1757:B1783"/>
-    <mergeCell ref="D1757:D1783"/>
     <mergeCell ref="E1028:E1054"/>
     <mergeCell ref="E1568:E1594"/>
     <mergeCell ref="C1649:C1675"/>
@@ -35397,7 +34427,6 @@
     <mergeCell ref="C164:C190"/>
     <mergeCell ref="D1055:D1081"/>
     <mergeCell ref="E947:E973"/>
-    <mergeCell ref="C1784:C1810"/>
     <mergeCell ref="E1514:E1540"/>
     <mergeCell ref="A1352:A1378"/>
     <mergeCell ref="D191:D217"/>
@@ -35452,12 +34481,10 @@
     <mergeCell ref="D1676:D1702"/>
     <mergeCell ref="D1703:D1729"/>
     <mergeCell ref="E974:E1000"/>
-    <mergeCell ref="B1784:B1810"/>
     <mergeCell ref="A1595:A1621"/>
     <mergeCell ref="C1595:C1621"/>
     <mergeCell ref="C407:C433"/>
     <mergeCell ref="A947:A973"/>
-    <mergeCell ref="E1784:E1810"/>
     <mergeCell ref="E137:E163"/>
     <mergeCell ref="E677:E703"/>
     <mergeCell ref="B299:B325"/>
@@ -35466,7 +34493,6 @@
     <mergeCell ref="E1271:E1297"/>
     <mergeCell ref="C110:C136"/>
     <mergeCell ref="E110:E136"/>
-    <mergeCell ref="A1757:A1783"/>
     <mergeCell ref="B1028:B1054"/>
     <mergeCell ref="B1055:B1081"/>
     <mergeCell ref="D785:D811"/>
@@ -35515,7 +34541,6 @@
     <mergeCell ref="A1217:A1243"/>
     <mergeCell ref="C947:C973"/>
     <mergeCell ref="A1487:A1513"/>
-    <mergeCell ref="A1784:A1810"/>
     <mergeCell ref="B56:B82"/>
     <mergeCell ref="B191:B217"/>
     <mergeCell ref="B623:B649"/>
@@ -35526,8 +34551,6 @@
     <mergeCell ref="D245:D271"/>
     <mergeCell ref="A515:A541"/>
     <mergeCell ref="D1271:D1297"/>
-    <mergeCell ref="B1811:B1837"/>
-    <mergeCell ref="D1811:D1837"/>
     <mergeCell ref="B1379:B1405"/>
     <mergeCell ref="D1379:D1405"/>
     <mergeCell ref="A1163:A1189"/>
@@ -35565,13 +34588,12 @@
     <mergeCell ref="C218:C244"/>
     <mergeCell ref="A758:A784"/>
     <mergeCell ref="B1136:B1162"/>
-    <mergeCell ref="A1811:A1837"/>
     <mergeCell ref="E1001:E1027"/>
     <mergeCell ref="C1541:C1567"/>
     <mergeCell ref="E1541:E1567"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756 I1757 I1758 I1759 I1760 I1761 I1762 I1763 I1764 I1765 I1766 I1767 I1768 I1769 I1770 I1771 I1772 I1773 I1774 I1775 I1776 I1777 I1778 I1779 I1780 I1781 I1782 I1783 I1784 I1785 I1786 I1787 I1788 I1789 I1790 I1791 I1792 I1793 I1794 I1795 I1796 I1797 I1798 I1799 I1800 I1801 I1802 I1803 I1804 I1805 I1806 I1807 I1808 I1809 I1810 I1811 I1812 I1813 I1814 I1815 I1816 I1817 I1818 I1819 I1820 I1821 I1822 I1823 I1824 I1825 I1826 I1827 I1828 I1829 I1830 I1831 I1832 I1833 I1834 I1835 I1836 I1837" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I69 I70 I71 I72 I73 I74 I75 I76 I77 I78 I79 I80 I81 I82 I83 I84 I85 I86 I87 I88 I89 I90 I91 I92 I93 I94 I95 I96 I97 I98 I99 I100 I101 I102 I103 I104 I105 I106 I107 I108 I109 I110 I111 I112 I113 I114 I115 I116 I117 I118 I119 I120 I121 I122 I123 I124 I125 I126 I127 I128 I129 I130 I131 I132 I133 I134 I135 I136 I137 I138 I139 I140 I141 I142 I143 I144 I145 I146 I147 I148 I149 I150 I151 I152 I153 I154 I155 I156 I157 I158 I159 I160 I161 I162 I163 I164 I165 I166 I167 I168 I169 I170 I171 I172 I173 I174 I175 I176 I177 I178 I179 I180 I181 I182 I183 I184 I185 I186 I187 I188 I189 I190 I191 I192 I193 I194 I195 I196 I197 I198 I199 I200 I201 I202 I203 I204 I205 I206 I207 I208 I209 I210 I211 I212 I213 I214 I215 I216 I217 I218 I219 I220 I221 I222 I223 I224 I225 I226 I227 I228 I229 I230 I231 I232 I233 I234 I235 I236 I237 I238 I239 I240 I241 I242 I243 I244 I245 I246 I247 I248 I249 I250 I251 I252 I253 I254 I255 I256 I257 I258 I259 I260 I261 I262 I263 I264 I265 I266 I267 I268 I269 I270 I271 I272 I273 I274 I275 I276 I277 I278 I279 I280 I281 I282 I283 I284 I285 I286 I287 I288 I289 I290 I291 I292 I293 I294 I295 I296 I297 I298 I299 I300 I301 I302 I303 I304 I305 I306 I307 I308 I309 I310 I311 I312 I313 I314 I315 I316 I317 I318 I319 I320 I321 I322 I323 I324 I325 I326 I327 I328 I329 I330 I331 I332 I333 I334 I335 I336 I337 I338 I339 I340 I341 I342 I343 I344 I345 I346 I347 I348 I349 I350 I351 I352 I353 I354 I355 I356 I357 I358 I359 I360 I361 I362 I363 I364 I365 I366 I367 I368 I369 I370 I371 I372 I373 I374 I375 I376 I377 I378 I379 I380 I381 I382 I383 I384 I385 I386 I387 I388 I389 I390 I391 I392 I393 I394 I395 I396 I397 I398 I399 I400 I401 I402 I403 I404 I405 I406 I407 I408 I409 I410 I411 I412 I413 I414 I415 I416 I417 I418 I419 I420 I421 I422 I423 I424 I425 I426 I427 I428 I429 I430 I431 I432 I433 I434 I435 I436 I437 I438 I439 I440 I441 I442 I443 I444 I445 I446 I447 I448 I449 I450 I451 I452 I453 I454 I455 I456 I457 I458 I459 I460 I461 I462 I463 I464 I465 I466 I467 I468 I469 I470 I471 I472 I473 I474 I475 I476 I477 I478 I479 I480 I481 I482 I483 I484 I485 I486 I487 I488 I489 I490 I491 I492 I493 I494 I495 I496 I497 I498 I499 I500 I501 I502 I503 I504 I505 I506 I507 I508 I509 I510 I511 I512 I513 I514 I515 I516 I517 I518 I519 I520 I521 I522 I523 I524 I525 I526 I527 I528 I529 I530 I531 I532 I533 I534 I535 I536 I537 I538 I539 I540 I541 I542 I543 I544 I545 I546 I547 I548 I549 I550 I551 I552 I553 I554 I555 I556 I557 I558 I559 I560 I561 I562 I563 I564 I565 I566 I567 I568 I569 I570 I571 I572 I573 I574 I575 I576 I577 I578 I579 I580 I581 I582 I583 I584 I585 I586 I587 I588 I589 I590 I591 I592 I593 I594 I595 I596 I597 I598 I599 I600 I601 I602 I603 I604 I605 I606 I607 I608 I609 I610 I611 I612 I613 I614 I615 I616 I617 I618 I619 I620 I621 I622 I623 I624 I625 I626 I627 I628 I629 I630 I631 I632 I633 I634 I635 I636 I637 I638 I639 I640 I641 I642 I643 I644 I645 I646 I647 I648 I649 I650 I651 I652 I653 I654 I655 I656 I657 I658 I659 I660 I661 I662 I663 I664 I665 I666 I667 I668 I669 I670 I671 I672 I673 I674 I675 I676 I677 I678 I679 I680 I681 I682 I683 I684 I685 I686 I687 I688 I689 I690 I691 I692 I693 I694 I695 I696 I697 I698 I699 I700 I701 I702 I703 I704 I705 I706 I707 I708 I709 I710 I711 I712 I713 I714 I715 I716 I717 I718 I719 I720 I721 I722 I723 I724 I725 I726 I727 I728 I729 I730 I731 I732 I733 I734 I735 I736 I737 I738 I739 I740 I741 I742 I743 I744 I745 I746 I747 I748 I749 I750 I751 I752 I753 I754 I755 I756 I757 I758 I759 I760 I761 I762 I763 I764 I765 I766 I767 I768 I769 I770 I771 I772 I773 I774 I775 I776 I777 I778 I779 I780 I781 I782 I783 I784 I785 I786 I787 I788 I789 I790 I791 I792 I793 I794 I795 I796 I797 I798 I799 I800 I801 I802 I803 I804 I805 I806 I807 I808 I809 I810 I811 I812 I813 I814 I815 I816 I817 I818 I819 I820 I821 I822 I823 I824 I825 I826 I827 I828 I829 I830 I831 I832 I833 I834 I835 I836 I837 I838 I839 I840 I841 I842 I843 I844 I845 I846 I847 I848 I849 I850 I851 I852 I853 I854 I855 I856 I857 I858 I859 I860 I861 I862 I863 I864 I865 I866 I867 I868 I869 I870 I871 I872 I873 I874 I875 I876 I877 I878 I879 I880 I881 I882 I883 I884 I885 I886 I887 I888 I889 I890 I891 I892 I893 I894 I895 I896 I897 I898 I899 I900 I901 I902 I903 I904 I905 I906 I907 I908 I909 I910 I911 I912 I913 I914 I915 I916 I917 I918 I919 I920 I921 I922 I923 I924 I925 I926 I927 I928 I929 I930 I931 I932 I933 I934 I935 I936 I937 I938 I939 I940 I941 I942 I943 I944 I945 I946 I947 I948 I949 I950 I951 I952 I953 I954 I955 I956 I957 I958 I959 I960 I961 I962 I963 I964 I965 I966 I967 I968 I969 I970 I971 I972 I973 I974 I975 I976 I977 I978 I979 I980 I981 I982 I983 I984 I985 I986 I987 I988 I989 I990 I991 I992 I993 I994 I995 I996 I997 I998 I999 I1000 I1001 I1002 I1003 I1004 I1005 I1006 I1007 I1008 I1009 I1010 I1011 I1012 I1013 I1014 I1015 I1016 I1017 I1018 I1019 I1020 I1021 I1022 I1023 I1024 I1025 I1026 I1027 I1028 I1029 I1030 I1031 I1032 I1033 I1034 I1035 I1036 I1037 I1038 I1039 I1040 I1041 I1042 I1043 I1044 I1045 I1046 I1047 I1048 I1049 I1050 I1051 I1052 I1053 I1054 I1055 I1056 I1057 I1058 I1059 I1060 I1061 I1062 I1063 I1064 I1065 I1066 I1067 I1068 I1069 I1070 I1071 I1072 I1073 I1074 I1075 I1076 I1077 I1078 I1079 I1080 I1081 I1082 I1083 I1084 I1085 I1086 I1087 I1088 I1089 I1090 I1091 I1092 I1093 I1094 I1095 I1096 I1097 I1098 I1099 I1100 I1101 I1102 I1103 I1104 I1105 I1106 I1107 I1108 I1109 I1110 I1111 I1112 I1113 I1114 I1115 I1116 I1117 I1118 I1119 I1120 I1121 I1122 I1123 I1124 I1125 I1126 I1127 I1128 I1129 I1130 I1131 I1132 I1133 I1134 I1135 I1136 I1137 I1138 I1139 I1140 I1141 I1142 I1143 I1144 I1145 I1146 I1147 I1148 I1149 I1150 I1151 I1152 I1153 I1154 I1155 I1156 I1157 I1158 I1159 I1160 I1161 I1162 I1163 I1164 I1165 I1166 I1167 I1168 I1169 I1170 I1171 I1172 I1173 I1174 I1175 I1176 I1177 I1178 I1179 I1180 I1181 I1182 I1183 I1184 I1185 I1186 I1187 I1188 I1189 I1190 I1191 I1192 I1193 I1194 I1195 I1196 I1197 I1198 I1199 I1200 I1201 I1202 I1203 I1204 I1205 I1206 I1207 I1208 I1209 I1210 I1211 I1212 I1213 I1214 I1215 I1216 I1217 I1218 I1219 I1220 I1221 I1222 I1223 I1224 I1225 I1226 I1227 I1228 I1229 I1230 I1231 I1232 I1233 I1234 I1235 I1236 I1237 I1238 I1239 I1240 I1241 I1242 I1243 I1244 I1245 I1246 I1247 I1248 I1249 I1250 I1251 I1252 I1253 I1254 I1255 I1256 I1257 I1258 I1259 I1260 I1261 I1262 I1263 I1264 I1265 I1266 I1267 I1268 I1269 I1270 I1271 I1272 I1273 I1274 I1275 I1276 I1277 I1278 I1279 I1280 I1281 I1282 I1283 I1284 I1285 I1286 I1287 I1288 I1289 I1290 I1291 I1292 I1293 I1294 I1295 I1296 I1297 I1298 I1299 I1300 I1301 I1302 I1303 I1304 I1305 I1306 I1307 I1308 I1309 I1310 I1311 I1312 I1313 I1314 I1315 I1316 I1317 I1318 I1319 I1320 I1321 I1322 I1323 I1324 I1325 I1326 I1327 I1328 I1329 I1330 I1331 I1332 I1333 I1334 I1335 I1336 I1337 I1338 I1339 I1340 I1341 I1342 I1343 I1344 I1345 I1346 I1347 I1348 I1349 I1350 I1351 I1352 I1353 I1354 I1355 I1356 I1357 I1358 I1359 I1360 I1361 I1362 I1363 I1364 I1365 I1366 I1367 I1368 I1369 I1370 I1371 I1372 I1373 I1374 I1375 I1376 I1377 I1378 I1379 I1380 I1381 I1382 I1383 I1384 I1385 I1386 I1387 I1388 I1389 I1390 I1391 I1392 I1393 I1394 I1395 I1396 I1397 I1398 I1399 I1400 I1401 I1402 I1403 I1404 I1405 I1406 I1407 I1408 I1409 I1410 I1411 I1412 I1413 I1414 I1415 I1416 I1417 I1418 I1419 I1420 I1421 I1422 I1423 I1424 I1425 I1426 I1427 I1428 I1429 I1430 I1431 I1432 I1433 I1434 I1435 I1436 I1437 I1438 I1439 I1440 I1441 I1442 I1443 I1444 I1445 I1446 I1447 I1448 I1449 I1450 I1451 I1452 I1453 I1454 I1455 I1456 I1457 I1458 I1459 I1460 I1461 I1462 I1463 I1464 I1465 I1466 I1467 I1468 I1469 I1470 I1471 I1472 I1473 I1474 I1475 I1476 I1477 I1478 I1479 I1480 I1481 I1482 I1483 I1484 I1485 I1486 I1487 I1488 I1489 I1490 I1491 I1492 I1493 I1494 I1495 I1496 I1497 I1498 I1499 I1500 I1501 I1502 I1503 I1504 I1505 I1506 I1507 I1508 I1509 I1510 I1511 I1512 I1513 I1514 I1515 I1516 I1517 I1518 I1519 I1520 I1521 I1522 I1523 I1524 I1525 I1526 I1527 I1528 I1529 I1530 I1531 I1532 I1533 I1534 I1535 I1536 I1537 I1538 I1539 I1540 I1541 I1542 I1543 I1544 I1545 I1546 I1547 I1548 I1549 I1550 I1551 I1552 I1553 I1554 I1555 I1556 I1557 I1558 I1559 I1560 I1561 I1562 I1563 I1564 I1565 I1566 I1567 I1568 I1569 I1570 I1571 I1572 I1573 I1574 I1575 I1576 I1577 I1578 I1579 I1580 I1581 I1582 I1583 I1584 I1585 I1586 I1587 I1588 I1589 I1590 I1591 I1592 I1593 I1594 I1595 I1596 I1597 I1598 I1599 I1600 I1601 I1602 I1603 I1604 I1605 I1606 I1607 I1608 I1609 I1610 I1611 I1612 I1613 I1614 I1615 I1616 I1617 I1618 I1619 I1620 I1621 I1622 I1623 I1624 I1625 I1626 I1627 I1628 I1629 I1630 I1631 I1632 I1633 I1634 I1635 I1636 I1637 I1638 I1639 I1640 I1641 I1642 I1643 I1644 I1645 I1646 I1647 I1648 I1649 I1650 I1651 I1652 I1653 I1654 I1655 I1656 I1657 I1658 I1659 I1660 I1661 I1662 I1663 I1664 I1665 I1666 I1667 I1668 I1669 I1670 I1671 I1672 I1673 I1674 I1675 I1676 I1677 I1678 I1679 I1680 I1681 I1682 I1683 I1684 I1685 I1686 I1687 I1688 I1689 I1690 I1691 I1692 I1693 I1694 I1695 I1696 I1697 I1698 I1699 I1700 I1701 I1702 I1703 I1704 I1705 I1706 I1707 I1708 I1709 I1710 I1711 I1712 I1713 I1714 I1715 I1716 I1717 I1718 I1719 I1720 I1721 I1722 I1723 I1724 I1725 I1726 I1727 I1728 I1729 I1730 I1731 I1732 I1733 I1734 I1735 I1736 I1737 I1738 I1739 I1740 I1741 I1742 I1743 I1744 I1745 I1746 I1747 I1748 I1749 I1750 I1751 I1752 I1753 I1754 I1755 I1756" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35585,7 +34607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35661,19 +34683,17 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>293</t>
-        </is>
+      <c r="A2" t="n">
+        <v>296</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nour</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Majdoub</t>
+          <t>Mauricio</t>
         </is>
       </c>
       <c r="D2">
@@ -35718,19 +34738,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
+      <c r="A3" t="n">
+        <v>290</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Ghassen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Guerra</t>
+          <t>Fatnassi</t>
         </is>
       </c>
       <c r="D3">
@@ -35775,19 +34793,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>286</t>
-        </is>
+      <c r="A4" t="n">
+        <v>288</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Orestis</t>
+          <t>Abdou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Makris</t>
+          <t>DIOP</t>
         </is>
       </c>
       <c r="D4">
@@ -35832,19 +34848,17 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
+      <c r="A5" t="n">
+        <v>285</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phuriwat</t>
+          <t>Alexey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Angkoondittaphong</t>
+          <t>Gruzdev</t>
         </is>
       </c>
       <c r="D5">
@@ -35889,19 +34903,17 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>273</t>
-        </is>
+      <c r="A6" t="n">
+        <v>281</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ABDULSALAM</t>
+          <t>Phuriwat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BANDE</t>
+          <t>Angkoondittaphong</t>
         </is>
       </c>
       <c r="D6">
@@ -35946,19 +34958,17 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>269</t>
-        </is>
+      <c r="A7" t="n">
+        <v>274</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Giorgio</t>
+          <t>Kir</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Magno</t>
+          <t>Zharov</t>
         </is>
       </c>
       <c r="D7">
@@ -36003,19 +35013,17 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
+      <c r="A8" t="n">
+        <v>272</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Naeem</t>
+          <t>Parichay</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Khoshnevis</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D8">
@@ -36060,19 +35068,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>260</t>
-        </is>
+      <c r="A9" t="n">
+        <v>262</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kennedy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ojodunwene</t>
+          <t>Uzoechi</t>
         </is>
       </c>
       <c r="D9">
@@ -36117,19 +35123,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>248</t>
-        </is>
+      <c r="A10" t="n">
+        <v>261</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aditya</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Navarro</t>
         </is>
       </c>
       <c r="D10">
@@ -36174,19 +35178,17 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>244</t>
-        </is>
+      <c r="A11" t="n">
+        <v>256</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Abdulhayyu</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Abubakar</t>
+          <t>Dowling</t>
         </is>
       </c>
       <c r="D11">
@@ -36231,19 +35233,17 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
+      <c r="A12" t="n">
+        <v>249</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Soran</t>
+          <t>David</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ghaderi</t>
+          <t>vonThenen</t>
         </is>
       </c>
       <c r="D12">
@@ -36288,19 +35288,17 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>239</t>
-        </is>
+      <c r="A13" t="n">
+        <v>247</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>keyush</t>
+          <t>Ankita</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nisar</t>
+          <t>Guha</t>
         </is>
       </c>
       <c r="D13">
@@ -36345,19 +35343,17 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>234</t>
-        </is>
+      <c r="A14" t="n">
+        <v>242</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ediomo</t>
+          <t>Soran</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Udoekere</t>
+          <t>Ghaderi</t>
         </is>
       </c>
       <c r="D14">
@@ -36402,19 +35398,17 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
+      <c r="A15" t="n">
+        <v>239</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vishesh</t>
+          <t>keyush</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>yadav</t>
+          <t>Nisar</t>
         </is>
       </c>
       <c r="D15">
@@ -36459,19 +35453,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>231</t>
-        </is>
+      <c r="A16" t="n">
+        <v>234</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ediomo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Efai</t>
+          <t>Udoekere</t>
         </is>
       </c>
       <c r="D16">
@@ -36516,17 +35508,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>228</t>
-        </is>
+      <c r="A17" t="n">
+        <v>231</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PrettyFave</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Efai</t>
+        </is>
+      </c>
       <c r="D17">
         <f>SUMPRODUCT(--('Review Sheet'!I407:I408="Yes"))</f>
         <v/>
@@ -36569,19 +35563,17 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>224</t>
-        </is>
+      <c r="A18" t="n">
+        <v>225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pacifique</t>
+          <t>Hyogeun</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mugisho</t>
+          <t>Oh</t>
         </is>
       </c>
       <c r="D18">
@@ -36626,17 +35618,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
+      <c r="A19" t="n">
+        <v>224</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sangofweb3</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>Pacifique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mugisho</t>
+        </is>
+      </c>
       <c r="D19">
         <f>SUMPRODUCT(--('Review Sheet'!I461:I462="Yes"))</f>
         <v/>
@@ -36679,19 +35673,17 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
+      <c r="A20" t="n">
+        <v>220</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Saagara</t>
+          <t>Hrudu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Baiju</t>
+          <t>Shibu</t>
         </is>
       </c>
       <c r="D20">
@@ -36736,19 +35728,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
+      <c r="A21" t="n">
+        <v>216</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mukhammad</t>
+          <t>Menan</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Rafsanjani</t>
+          <t>Velayuthan</t>
         </is>
       </c>
       <c r="D21">
@@ -36793,19 +35783,17 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
+      <c r="A22" t="n">
+        <v>212</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Akilsurya</t>
+          <t>Omosuyi</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sivakumar</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="D22">
@@ -36850,19 +35838,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
+      <c r="A23" t="n">
+        <v>207</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Tan</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Consolvo</t>
+          <t>Seng</t>
         </is>
       </c>
       <c r="D23">
@@ -36907,19 +35893,17 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>203</t>
-        </is>
+      <c r="A24" t="n">
+        <v>200</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kunal</t>
+          <t>Murilo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mishra</t>
+          <t>Gustineli</t>
         </is>
       </c>
       <c r="D24">
@@ -36964,10 +35948,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
+      <c r="A25" t="n">
+        <v>196</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -37021,19 +36003,17 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
+      <c r="A26" t="n">
+        <v>188</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sakigokul</t>
+          <t>Haichen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>Zhang</t>
         </is>
       </c>
       <c r="D26">
@@ -37078,19 +36058,17 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
+      <c r="A27" t="n">
+        <v>181</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sumantro</t>
+          <t>Gaurav</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mukherjee</t>
+          <t>Sarkar</t>
         </is>
       </c>
       <c r="D27">
@@ -37135,19 +36113,17 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
+      <c r="A28" t="n">
+        <v>178</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bingqing</t>
+          <t>Efe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Guo</t>
+          <t>Güler</t>
         </is>
       </c>
       <c r="D28">
@@ -37192,19 +36168,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
+      <c r="A29" t="n">
+        <v>175</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Efe</t>
+          <t>Osman</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Güler</t>
+          <t>Sesay</t>
         </is>
       </c>
       <c r="D29">
@@ -37249,19 +36223,17 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
+      <c r="A30" t="n">
+        <v>170</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Osman</t>
+          <t>Sanjoy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sesay</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D30">
@@ -37306,19 +36278,17 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
+      <c r="A31" t="n">
+        <v>164</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Madan</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Valdez</t>
         </is>
       </c>
       <c r="D31">
@@ -37363,19 +36333,17 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
+      <c r="A32" t="n">
+        <v>162</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Mirza</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Valdez</t>
+          <t>Abbas</t>
         </is>
       </c>
       <c r="D32">
@@ -37420,19 +36388,17 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A33" t="n">
+        <v>161</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Jiho</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Nazif</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="D33">
@@ -37477,19 +36443,17 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>158</t>
-        </is>
+      <c r="A34" t="n">
+        <v>156</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Md</t>
+          <t>Ugama</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tanvir</t>
+          <t>Kelechi</t>
         </is>
       </c>
       <c r="D34">
@@ -37534,19 +36498,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
+      <c r="A35" t="n">
+        <v>154</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ugama</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kelechi</t>
+          <t>Ferrer</t>
         </is>
       </c>
       <c r="D35">
@@ -37591,19 +36553,17 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>153</t>
-        </is>
+      <c r="A36" t="n">
+        <v>148</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eikan</t>
+          <t>Dr.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Rahevar</t>
         </is>
       </c>
       <c r="D36">
@@ -37648,19 +36608,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
+      <c r="A37" t="n">
+        <v>147</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Masahiro</t>
+          <t>TAMWO</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hiramori</t>
+          <t>VALERE</t>
         </is>
       </c>
       <c r="D37">
@@ -37705,19 +36663,17 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
+      <c r="A38" t="n">
+        <v>144</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sarthak</t>
+          <t>Bassey</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Purohit</t>
+          <t>Ene</t>
         </is>
       </c>
       <c r="D38">
@@ -37762,19 +36718,17 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
+      <c r="A39" t="n">
+        <v>140</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hossain</t>
+          <t>Aladdin</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kabir</t>
+          <t>Persson</t>
         </is>
       </c>
       <c r="D39">
@@ -37819,19 +36773,17 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
+      <c r="A40" t="n">
+        <v>137</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aladdin</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Persson</t>
+          <t>Chan</t>
         </is>
       </c>
       <c r="D40">
@@ -37876,19 +36828,17 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
+      <c r="A41" t="n">
+        <v>132</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Omer</t>
+          <t>Aakash</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Toqeer</t>
+          <t>Rana</t>
         </is>
       </c>
       <c r="D41">
@@ -37933,19 +36883,17 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
+      <c r="A42" t="n">
+        <v>129</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lopez</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D42">
@@ -37990,19 +36938,17 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
+      <c r="A43" t="n">
+        <v>125</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mustafa</t>
+          <t>Emre</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AbdulRazek</t>
+          <t>Kurtoglu</t>
         </is>
       </c>
       <c r="D43">
@@ -38047,19 +36993,17 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A44" t="n">
+        <v>119</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Karn</t>
+          <t>Arun</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Watcharasupat</t>
+          <t>Bhandari</t>
         </is>
       </c>
       <c r="D44">
@@ -38104,19 +37048,17 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
+      <c r="A45" t="n">
+        <v>116</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Giulio</t>
+          <t>Sandin</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Russo</t>
+          <t>Maheeshakya</t>
         </is>
       </c>
       <c r="D45">
@@ -38161,19 +37103,17 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
+      <c r="A46" t="n">
+        <v>109</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mohamed</t>
+          <t>Vash</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Elsayed</t>
+          <t>Puno</t>
         </is>
       </c>
       <c r="D46">
@@ -38218,19 +37158,17 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="A47" t="n">
+        <v>108</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nicabed</t>
+          <t>Jayed</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gathaba</t>
+          <t>Mansur</t>
         </is>
       </c>
       <c r="D47">
@@ -38275,19 +37213,17 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
+      <c r="A48" t="n">
+        <v>104</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Vincent</t>
+          <t>Akaash</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Tripathi</t>
         </is>
       </c>
       <c r="D48">
@@ -38332,19 +37268,17 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+      <c r="A49" t="n">
+        <v>101</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Harini</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Anand</t>
+          <t>Mouad</t>
         </is>
       </c>
       <c r="D49">
@@ -38389,19 +37323,17 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
+      <c r="A50" t="n">
+        <v>100</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Varanasi</t>
+          <t>Peter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Akhil</t>
+          <t>Subrata</t>
         </is>
       </c>
       <c r="D50">
@@ -38446,19 +37378,17 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
+      <c r="A51" t="n">
+        <v>95</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Herumb</t>
+          <t>Sandhya</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shandilya</t>
+          <t>Karki</t>
         </is>
       </c>
       <c r="D51">
@@ -38503,19 +37433,17 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
+      <c r="A52" t="n">
+        <v>83</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NOMTHANDAZO</t>
+          <t>Ahmad</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>TSHUMA</t>
+          <t>Anis</t>
         </is>
       </c>
       <c r="D52">
@@ -38560,19 +37488,17 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
+      <c r="A53" t="n">
+        <v>80</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Umair</t>
+          <t>JESUS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Inayat</t>
+          <t>MEDRANO</t>
         </is>
       </c>
       <c r="D53">
@@ -38617,19 +37543,17 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
+      <c r="A54" t="n">
+        <v>78</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Iflal</t>
+          <t>Awadelrahman</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ismalebbe</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="D54">
@@ -38674,19 +37598,17 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
+      <c r="A55" t="n">
+        <v>77</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Lazhar</t>
+          <t>Satyam</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Bouacha</t>
+          <t>Kumar</t>
         </is>
       </c>
       <c r="D55">
@@ -38731,19 +37653,17 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
+      <c r="A56" t="n">
+        <v>75</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Satyam</t>
+          <t>Alexandru</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Kumar</t>
+          <t>Aslău</t>
         </is>
       </c>
       <c r="D56">
@@ -38788,19 +37708,17 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
+      <c r="A57" t="n">
+        <v>73</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dipesh</t>
+          <t>Muhammad</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mahato</t>
+          <t>Rebaal</t>
         </is>
       </c>
       <c r="D57">
@@ -38845,19 +37763,17 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A58" t="n">
+        <v>71</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Muhammad</t>
+          <t>Donny</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rebaal</t>
+          <t>Greenberg</t>
         </is>
       </c>
       <c r="D58">
@@ -38902,19 +37818,17 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
+      <c r="A59" t="n">
+        <v>68</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Amir</t>
+          <t>SIDOW</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Bhattarai</t>
+          <t>SIDOW</t>
         </is>
       </c>
       <c r="D59">
@@ -38959,19 +37873,17 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
+      <c r="A60" t="n">
+        <v>64</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lucky</t>
+          <t>Abdul</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hassan</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D60">
@@ -39016,19 +37928,17 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
+      <c r="A61" t="n">
+        <v>61</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ahmet</t>
+          <t>Debashish</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SERÇE</t>
+          <t>Chakraborty</t>
         </is>
       </c>
       <c r="D61">
@@ -39073,19 +37983,17 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A62" t="n">
+        <v>56</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hamza</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gbada</t>
+          <t>Melvin</t>
         </is>
       </c>
       <c r="D62">
@@ -39130,10 +38038,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
+      <c r="A63" t="n">
+        <v>53</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -39187,19 +38093,17 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
+      <c r="A64" t="n">
+        <v>48</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Pradheep</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Raghavan</t>
+          <t>Goheen</t>
         </is>
       </c>
       <c r="D64">
@@ -39244,19 +38148,17 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
+      <c r="A65" t="n">
+        <v>41</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jonathan</t>
+          <t>Wajahat</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Fernandes</t>
+          <t>Khan</t>
         </is>
       </c>
       <c r="D65">
@@ -39301,19 +38203,17 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
+      <c r="A66" t="n">
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>ANAGHA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>KANGONI</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D66">
@@ -39354,177 +38254,6 @@
       </c>
       <c r="M66">
         <f>SUM(D66,E66,F66,G66,H66,I66,J66,K66,L66)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Wajahat</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Khan</t>
-        </is>
-      </c>
-      <c r="D67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1757:I1758="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1759:I1761="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1762:I1763="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1764:I1770="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1771:I1774="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1775:I1776="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1777:I1778="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1779:I1782="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L67">
-        <f>SUMPRODUCT(--('Review Sheet'!I1783:I1783="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M67">
-        <f>SUM(D67,E67,F67,G67,H67,I67,J67,K67,L67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Sagi</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Bharadwaj</t>
-        </is>
-      </c>
-      <c r="D68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1784:I1785="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1786:I1788="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1789:I1790="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1791:I1797="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1798:I1801="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1802:I1803="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1804:I1805="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1806:I1809="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L68">
-        <f>SUMPRODUCT(--('Review Sheet'!I1810:I1810="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M68">
-        <f>SUM(D68,E68,F68,G68,H68,I68,J68,K68,L68)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ANAGHA</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1811:I1812="Yes"))</f>
-        <v/>
-      </c>
-      <c r="E69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1813:I1815="Yes"))</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1816:I1817="Yes"))</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1818:I1824="Yes"))</f>
-        <v/>
-      </c>
-      <c r="H69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1825:I1828="Yes"))</f>
-        <v/>
-      </c>
-      <c r="I69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1829:I1830="Yes"))</f>
-        <v/>
-      </c>
-      <c r="J69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1831:I1832="Yes"))</f>
-        <v/>
-      </c>
-      <c r="K69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1833:I1836="Yes"))</f>
-        <v/>
-      </c>
-      <c r="L69">
-        <f>SUMPRODUCT(--('Review Sheet'!I1837:I1837="Yes"))</f>
-        <v/>
-      </c>
-      <c r="M69">
-        <f>SUM(D69,E69,F69,G69,H69,I69,J69,K69,L69)</f>
         <v/>
       </c>
     </row>
